--- a/example_grammars/pokemon.xlsx
+++ b/example_grammars/pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miloc\Documents\MiloTextGen\example_grammars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991C2FB-77E0-4243-94C4-4C8665EDAF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F3A52-28BC-4E05-B34C-E3778527FCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="637">
   <si>
     <t>fairy</t>
   </si>
@@ -1311,6 +1311,642 @@
   </si>
   <si>
     <t>bi</t>
+  </si>
+  <si>
+    <t>prefix-gen3</t>
+  </si>
+  <si>
+    <t>suffix-gen3</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>grov</t>
+  </si>
+  <si>
+    <t>scept</t>
+  </si>
+  <si>
+    <t>tor</t>
+  </si>
+  <si>
+    <t>combus</t>
+  </si>
+  <si>
+    <t>blazi</t>
+  </si>
+  <si>
+    <t>mud</t>
+  </si>
+  <si>
+    <t>marsh</t>
+  </si>
+  <si>
+    <t>swamp</t>
+  </si>
+  <si>
+    <t>pooch</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>zigzag</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>wurm</t>
+  </si>
+  <si>
+    <t>sil</t>
+  </si>
+  <si>
+    <t>beauti</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>nuz</t>
+  </si>
+  <si>
+    <t>shif</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>swel</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>peli</t>
+  </si>
+  <si>
+    <t>garde</t>
+  </si>
+  <si>
+    <t>sur</t>
+  </si>
+  <si>
+    <t>masque</t>
+  </si>
+  <si>
+    <t>shroom</t>
+  </si>
+  <si>
+    <t>bre</t>
+  </si>
+  <si>
+    <t>sla</t>
+  </si>
+  <si>
+    <t>vigor</t>
+  </si>
+  <si>
+    <t>nin</t>
+  </si>
+  <si>
+    <t>shed</t>
+  </si>
+  <si>
+    <t>whis</t>
+  </si>
+  <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>maku</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>azu</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>sable</t>
+  </si>
+  <si>
+    <t>maw</t>
+  </si>
+  <si>
+    <t>lai</t>
+  </si>
+  <si>
+    <t>agg</t>
+  </si>
+  <si>
+    <t>medi</t>
+  </si>
+  <si>
+    <t>elec</t>
+  </si>
+  <si>
+    <t>plu</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>illu</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>gul</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>shar</t>
+  </si>
+  <si>
+    <t>wail</t>
+  </si>
+  <si>
+    <t>cam</t>
+  </si>
+  <si>
+    <t>grum</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>cac</t>
+  </si>
+  <si>
+    <t>swa</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>zan</t>
+  </si>
+  <si>
+    <t>sev</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>craw</t>
+  </si>
+  <si>
+    <t>bal</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>lil</t>
+  </si>
+  <si>
+    <t>crad</t>
+  </si>
+  <si>
+    <t>anor</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>milo</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>kec</t>
+  </si>
+  <si>
+    <t>shup</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>dus</t>
+  </si>
+  <si>
+    <t>trop</t>
+  </si>
+  <si>
+    <t>chim</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>wy</t>
+  </si>
+  <si>
+    <t>sno</t>
+  </si>
+  <si>
+    <t>gla</t>
+  </si>
+  <si>
+    <t>wal</t>
+  </si>
+  <si>
+    <t>clam</t>
+  </si>
+  <si>
+    <t>hun</t>
+  </si>
+  <si>
+    <t>gore</t>
+  </si>
+  <si>
+    <t>reli</t>
+  </si>
+  <si>
+    <t>luv</t>
+  </si>
+  <si>
+    <t>shel</t>
+  </si>
+  <si>
+    <t>sala</t>
+  </si>
+  <si>
+    <t>bel</t>
+  </si>
+  <si>
+    <t>regi</t>
+  </si>
+  <si>
+    <t>lati</t>
+  </si>
+  <si>
+    <t>ky</t>
+  </si>
+  <si>
+    <t>grou</t>
+  </si>
+  <si>
+    <t>ray</t>
+  </si>
+  <si>
+    <t>jir</t>
+  </si>
+  <si>
+    <t>deo</t>
+  </si>
+  <si>
+    <t>cko</t>
+  </si>
+  <si>
+    <t>yle</t>
+  </si>
+  <si>
+    <t>ile</t>
+  </si>
+  <si>
+    <t>chic</t>
+  </si>
+  <si>
+    <t>ken</t>
+  </si>
+  <si>
+    <t>kip</t>
+  </si>
+  <si>
+    <t>tomp</t>
+  </si>
+  <si>
+    <t>ert</t>
+  </si>
+  <si>
+    <t>yena</t>
+  </si>
+  <si>
+    <t>oon</t>
+  </si>
+  <si>
+    <t>ple</t>
+  </si>
+  <si>
+    <t>coon</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>tad</t>
+  </si>
+  <si>
+    <t>colo</t>
+  </si>
+  <si>
+    <t>ot</t>
+  </si>
+  <si>
+    <t>lia</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>gull</t>
+  </si>
+  <si>
+    <t>voir</t>
+  </si>
+  <si>
+    <t>skit</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>oth</t>
+  </si>
+  <si>
+    <t>cada</t>
+  </si>
+  <si>
+    <t>jask</t>
+  </si>
+  <si>
+    <t>inja</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>hita</t>
+  </si>
+  <si>
+    <t>yama</t>
+  </si>
+  <si>
+    <t>rill</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>catty</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>ron</t>
+  </si>
+  <si>
+    <t>tite</t>
+  </si>
+  <si>
+    <t>cham</t>
+  </si>
+  <si>
+    <t>trike</t>
+  </si>
+  <si>
+    <t>ectric</t>
+  </si>
+  <si>
+    <t>sle</t>
+  </si>
+  <si>
+    <t>nun</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>mise</t>
+  </si>
+  <si>
+    <t>elia</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>vanha</t>
+  </si>
+  <si>
+    <t>pedo</t>
+  </si>
+  <si>
+    <t>mer</t>
+  </si>
+  <si>
+    <t>lord</t>
+  </si>
+  <si>
+    <t>erupt</t>
+  </si>
+  <si>
+    <t>koal</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>brava</t>
+  </si>
+  <si>
+    <t>nea</t>
+  </si>
+  <si>
+    <t>turne</t>
+  </si>
+  <si>
+    <t>blu</t>
+  </si>
+  <si>
+    <t>goose</t>
+  </si>
+  <si>
+    <t>iper</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>boach</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>phish</t>
+  </si>
+  <si>
+    <t>daunt</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>dol</t>
+  </si>
+  <si>
+    <t>ily</t>
+  </si>
+  <si>
+    <t>ith</t>
+  </si>
+  <si>
+    <t>aldo</t>
+  </si>
+  <si>
+    <t>bas</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>leon</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>ette</t>
+  </si>
+  <si>
+    <t>kull</t>
+  </si>
+  <si>
+    <t>lops</t>
+  </si>
+  <si>
+    <t>ius</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>naut</t>
+  </si>
+  <si>
+    <t>runt</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>rein</t>
+  </si>
+  <si>
+    <t>perl</t>
+  </si>
+  <si>
+    <t>byss</t>
+  </si>
+  <si>
+    <t>canth</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>mence</t>
+  </si>
+  <si>
+    <t>dum</t>
+  </si>
+  <si>
+    <t>tang</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>ogre</t>
+  </si>
+  <si>
+    <t>quaza</t>
+  </si>
+  <si>
+    <t>achi</t>
+  </si>
+  <si>
+    <t>xys</t>
+  </si>
+  <si>
+    <t>[prefix-gen3]</t>
+  </si>
+  <si>
+    <t>[suffix-gen3]</t>
   </si>
 </sst>
 </file>
@@ -1629,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1651,10 +2287,12 @@
     <col min="14" max="14" width="16.453125" customWidth="1"/>
     <col min="15" max="15" width="16.36328125" customWidth="1"/>
     <col min="16" max="16" width="18.36328125" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" customWidth="1"/>
     <col min="20" max="20" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1703,8 +2341,14 @@
       <c r="P1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>425</v>
+      </c>
+      <c r="R1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>227</v>
       </c>
@@ -1753,8 +2397,14 @@
       <c r="P2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" t="s">
+        <v>427</v>
+      </c>
+      <c r="R2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -1803,14 +2453,26 @@
       <c r="P3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" t="s">
+        <v>428</v>
+      </c>
+      <c r="R3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>312</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="G4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H4" t="s">
+        <v>636</v>
+      </c>
       <c r="I4" t="s">
         <v>253</v>
       </c>
@@ -1835,8 +2497,14 @@
       <c r="P4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
+        <v>429</v>
+      </c>
+      <c r="R4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I5" t="s">
         <v>254</v>
       </c>
@@ -1861,8 +2529,14 @@
       <c r="P5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" t="s">
+        <v>430</v>
+      </c>
+      <c r="R5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J6" t="s">
         <v>232</v>
       </c>
@@ -1884,8 +2558,14 @@
       <c r="P6" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" t="s">
+        <v>431</v>
+      </c>
+      <c r="R6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J7" t="s">
         <v>233</v>
       </c>
@@ -1907,8 +2587,14 @@
       <c r="P7" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" t="s">
+        <v>432</v>
+      </c>
+      <c r="R7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J8" t="s">
         <v>234</v>
       </c>
@@ -1927,8 +2613,14 @@
       <c r="P8" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8" t="s">
+        <v>433</v>
+      </c>
+      <c r="R8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J9" t="s">
         <v>235</v>
       </c>
@@ -1947,8 +2639,14 @@
       <c r="P9" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9" t="s">
+        <v>434</v>
+      </c>
+      <c r="R9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J10" t="s">
         <v>231</v>
       </c>
@@ -1967,8 +2665,14 @@
       <c r="P10" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10" t="s">
+        <v>435</v>
+      </c>
+      <c r="R10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J11" t="s">
         <v>37</v>
       </c>
@@ -1987,8 +2691,14 @@
       <c r="P11" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>436</v>
+      </c>
+      <c r="R11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J12" t="s">
         <v>236</v>
       </c>
@@ -2007,8 +2717,14 @@
       <c r="P12" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12" t="s">
+        <v>437</v>
+      </c>
+      <c r="R12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J13" t="s">
         <v>43</v>
       </c>
@@ -2024,8 +2740,14 @@
       <c r="P13" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13" t="s">
+        <v>438</v>
+      </c>
+      <c r="R13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J14" t="s">
         <v>38</v>
       </c>
@@ -2041,8 +2763,14 @@
       <c r="P14" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14" t="s">
+        <v>439</v>
+      </c>
+      <c r="R14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J15" t="s">
         <v>237</v>
       </c>
@@ -2058,8 +2786,14 @@
       <c r="P15" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15" t="s">
+        <v>440</v>
+      </c>
+      <c r="R15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J16" t="s">
         <v>238</v>
       </c>
@@ -2075,8 +2809,14 @@
       <c r="P16" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q16" t="s">
+        <v>441</v>
+      </c>
+      <c r="R16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J17" t="s">
         <v>40</v>
       </c>
@@ -2092,8 +2832,14 @@
       <c r="P17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>442</v>
+      </c>
+      <c r="R17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>239</v>
       </c>
@@ -2109,8 +2855,14 @@
       <c r="P18" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q18" t="s">
+        <v>443</v>
+      </c>
+      <c r="R18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J19" t="s">
         <v>44</v>
       </c>
@@ -2126,8 +2878,14 @@
       <c r="P19" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q19" t="s">
+        <v>444</v>
+      </c>
+      <c r="R19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J20" t="s">
         <v>45</v>
       </c>
@@ -2143,8 +2901,14 @@
       <c r="P20" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="21" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q20" t="s">
+        <v>445</v>
+      </c>
+      <c r="R20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
         <v>42</v>
       </c>
@@ -2160,8 +2924,14 @@
       <c r="P21" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q21" t="s">
+        <v>446</v>
+      </c>
+      <c r="R21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J22" t="s">
         <v>35</v>
       </c>
@@ -2177,8 +2947,14 @@
       <c r="P22" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="23" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q22" t="s">
+        <v>447</v>
+      </c>
+      <c r="R22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J23" t="s">
         <v>240</v>
       </c>
@@ -2194,8 +2970,14 @@
       <c r="P23" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="24" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q23" t="s">
+        <v>448</v>
+      </c>
+      <c r="R23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J24" t="s">
         <v>241</v>
       </c>
@@ -2211,8 +2993,14 @@
       <c r="P24" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="25" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q24" t="s">
+        <v>449</v>
+      </c>
+      <c r="R24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J25" t="s">
         <v>242</v>
       </c>
@@ -2228,8 +3016,14 @@
       <c r="P25" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="26" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q25" t="s">
+        <v>450</v>
+      </c>
+      <c r="R25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="10:18" x14ac:dyDescent="0.35">
       <c r="J26" t="s">
         <v>243</v>
       </c>
@@ -2245,8 +3039,14 @@
       <c r="P26" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="27" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q26" t="s">
+        <v>451</v>
+      </c>
+      <c r="R26" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="10:18" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>60</v>
       </c>
@@ -2259,8 +3059,14 @@
       <c r="P27" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="28" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q27" t="s">
+        <v>452</v>
+      </c>
+      <c r="R27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="10:18" x14ac:dyDescent="0.35">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -2273,8 +3079,14 @@
       <c r="P28" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="29" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="10:18" x14ac:dyDescent="0.35">
       <c r="M29" t="s">
         <v>62</v>
       </c>
@@ -2287,8 +3099,14 @@
       <c r="P29" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="30" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q29" t="s">
+        <v>454</v>
+      </c>
+      <c r="R29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="10:18" x14ac:dyDescent="0.35">
       <c r="M30" t="s">
         <v>63</v>
       </c>
@@ -2301,8 +3119,14 @@
       <c r="P30" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="31" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q30" t="s">
+        <v>455</v>
+      </c>
+      <c r="R30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31" spans="10:18" x14ac:dyDescent="0.35">
       <c r="M31" t="s">
         <v>64</v>
       </c>
@@ -2315,8 +3139,14 @@
       <c r="P31" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="32" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="Q31" t="s">
+        <v>456</v>
+      </c>
+      <c r="R31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="10:18" x14ac:dyDescent="0.35">
       <c r="M32" t="s">
         <v>65</v>
       </c>
@@ -2329,8 +3159,14 @@
       <c r="P32" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q32" t="s">
+        <v>457</v>
+      </c>
+      <c r="R32" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="33" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M33" t="s">
         <v>66</v>
       </c>
@@ -2343,8 +3179,14 @@
       <c r="P33" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q33" t="s">
+        <v>458</v>
+      </c>
+      <c r="R33" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="34" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M34" t="s">
         <v>67</v>
       </c>
@@ -2357,8 +3199,14 @@
       <c r="P34" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q34" t="s">
+        <v>459</v>
+      </c>
+      <c r="R34" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="35" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M35" t="s">
         <v>68</v>
       </c>
@@ -2371,8 +3219,14 @@
       <c r="P35" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q35" t="s">
+        <v>460</v>
+      </c>
+      <c r="R35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M36" t="s">
         <v>69</v>
       </c>
@@ -2385,8 +3239,14 @@
       <c r="P36" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q36" t="s">
+        <v>461</v>
+      </c>
+      <c r="R36" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M37" t="s">
         <v>70</v>
       </c>
@@ -2399,8 +3259,14 @@
       <c r="P37" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="38" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q37" t="s">
+        <v>462</v>
+      </c>
+      <c r="R37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M38" t="s">
         <v>71</v>
       </c>
@@ -2413,8 +3279,14 @@
       <c r="P38" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="39" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q38" t="s">
+        <v>463</v>
+      </c>
+      <c r="R38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M39" t="s">
         <v>72</v>
       </c>
@@ -2427,8 +3299,14 @@
       <c r="P39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q39" t="s">
+        <v>464</v>
+      </c>
+      <c r="R39" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M40" t="s">
         <v>73</v>
       </c>
@@ -2441,8 +3319,14 @@
       <c r="P40" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="41" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q40" t="s">
+        <v>465</v>
+      </c>
+      <c r="R40" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M41" t="s">
         <v>74</v>
       </c>
@@ -2455,8 +3339,14 @@
       <c r="P41" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="42" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q41" t="s">
+        <v>466</v>
+      </c>
+      <c r="R41" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M42" t="s">
         <v>75</v>
       </c>
@@ -2469,8 +3359,14 @@
       <c r="P42" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="43" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q42" t="s">
+        <v>467</v>
+      </c>
+      <c r="R42" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M43" t="s">
         <v>51</v>
       </c>
@@ -2483,8 +3379,14 @@
       <c r="P43" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="44" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q43" t="s">
+        <v>468</v>
+      </c>
+      <c r="R43" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M44" t="s">
         <v>76</v>
       </c>
@@ -2497,8 +3399,14 @@
       <c r="P44" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q44" t="s">
+        <v>469</v>
+      </c>
+      <c r="R44" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="45" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M45" t="s">
         <v>77</v>
       </c>
@@ -2511,8 +3419,14 @@
       <c r="P45" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="46" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q45" t="s">
+        <v>470</v>
+      </c>
+      <c r="R45" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M46" t="s">
         <v>78</v>
       </c>
@@ -2525,8 +3439,14 @@
       <c r="P46" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="47" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q46" t="s">
+        <v>471</v>
+      </c>
+      <c r="R46" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="47" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M47" t="s">
         <v>79</v>
       </c>
@@ -2539,8 +3459,14 @@
       <c r="P47" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="48" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q47" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="48" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M48" t="s">
         <v>80</v>
       </c>
@@ -2553,8 +3479,14 @@
       <c r="P48" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="49" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q48" t="s">
+        <v>472</v>
+      </c>
+      <c r="R48" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="49" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M49" t="s">
         <v>81</v>
       </c>
@@ -2567,8 +3499,14 @@
       <c r="P49" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="50" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q49" t="s">
+        <v>473</v>
+      </c>
+      <c r="R49" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M50" t="s">
         <v>82</v>
       </c>
@@ -2581,8 +3519,14 @@
       <c r="P50" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="51" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q50" t="s">
+        <v>474</v>
+      </c>
+      <c r="R50" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M51" t="s">
         <v>83</v>
       </c>
@@ -2595,8 +3539,14 @@
       <c r="P51" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="52" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q51" t="s">
+        <v>475</v>
+      </c>
+      <c r="R51" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="52" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M52" t="s">
         <v>84</v>
       </c>
@@ -2609,8 +3559,14 @@
       <c r="P52" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="53" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q52" t="s">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="53" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M53" t="s">
         <v>85</v>
       </c>
@@ -2623,8 +3579,14 @@
       <c r="P53" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="54" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q53" t="s">
+        <v>476</v>
+      </c>
+      <c r="R53" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M54" t="s">
         <v>86</v>
       </c>
@@ -2637,8 +3599,14 @@
       <c r="P54" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="55" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q54" t="s">
+        <v>477</v>
+      </c>
+      <c r="R54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="55" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M55" t="s">
         <v>87</v>
       </c>
@@ -2651,8 +3619,14 @@
       <c r="P55" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="56" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q55" t="s">
+        <v>478</v>
+      </c>
+      <c r="R55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M56" t="s">
         <v>88</v>
       </c>
@@ -2665,8 +3639,14 @@
       <c r="P56" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="57" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q56" t="s">
+        <v>479</v>
+      </c>
+      <c r="R56" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="57" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M57" t="s">
         <v>89</v>
       </c>
@@ -2679,8 +3659,14 @@
       <c r="P57" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="58" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q57" t="s">
+        <v>480</v>
+      </c>
+      <c r="R57" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M58" t="s">
         <v>90</v>
       </c>
@@ -2693,8 +3679,14 @@
       <c r="P58" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="59" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q58" t="s">
+        <v>481</v>
+      </c>
+      <c r="R58" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="59" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M59" t="s">
         <v>91</v>
       </c>
@@ -2707,8 +3699,14 @@
       <c r="P59" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="60" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q59" t="s">
+        <v>435</v>
+      </c>
+      <c r="R59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="60" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M60" t="s">
         <v>92</v>
       </c>
@@ -2721,8 +3719,14 @@
       <c r="P60" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="61" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q60" t="s">
+        <v>482</v>
+      </c>
+      <c r="R60" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="61" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M61" t="s">
         <v>93</v>
       </c>
@@ -2735,8 +3739,14 @@
       <c r="P61" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q61" t="s">
+        <v>483</v>
+      </c>
+      <c r="R61" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="62" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M62" t="s">
         <v>94</v>
       </c>
@@ -2749,8 +3759,14 @@
       <c r="P62" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="63" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q62" t="s">
+        <v>484</v>
+      </c>
+      <c r="R62" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="63" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M63" t="s">
         <v>95</v>
       </c>
@@ -2763,8 +3779,14 @@
       <c r="P63" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="64" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q63" t="s">
+        <v>485</v>
+      </c>
+      <c r="R63" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="64" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M64" t="s">
         <v>96</v>
       </c>
@@ -2777,8 +3799,14 @@
       <c r="P64" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="65" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q64" t="s">
+        <v>430</v>
+      </c>
+      <c r="R64" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="65" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M65" t="s">
         <v>97</v>
       </c>
@@ -2791,8 +3819,14 @@
       <c r="P65" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="66" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q65" t="s">
+        <v>486</v>
+      </c>
+      <c r="R65" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="66" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M66" t="s">
         <v>98</v>
       </c>
@@ -2805,8 +3839,14 @@
       <c r="P66" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q66" t="s">
+        <v>283</v>
+      </c>
+      <c r="R66" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="67" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M67" t="s">
         <v>99</v>
       </c>
@@ -2819,8 +3859,14 @@
       <c r="P67" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="68" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q67" t="s">
+        <v>487</v>
+      </c>
+      <c r="R67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M68" t="s">
         <v>100</v>
       </c>
@@ -2833,8 +3879,14 @@
       <c r="P68" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="69" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q68" t="s">
+        <v>589</v>
+      </c>
+      <c r="R68" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="69" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M69" t="s">
         <v>101</v>
       </c>
@@ -2847,8 +3899,14 @@
       <c r="P69" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="70" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q69" t="s">
+        <v>488</v>
+      </c>
+      <c r="R69" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="70" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M70" t="s">
         <v>102</v>
       </c>
@@ -2861,8 +3919,14 @@
       <c r="P70" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="71" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q70" t="s">
+        <v>489</v>
+      </c>
+      <c r="R70" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M71" t="s">
         <v>103</v>
       </c>
@@ -2875,8 +3939,14 @@
       <c r="P71" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="72" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q71" t="s">
+        <v>490</v>
+      </c>
+      <c r="R71" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M72" t="s">
         <v>104</v>
       </c>
@@ -2889,8 +3959,14 @@
       <c r="P72" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="73" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q72" t="s">
+        <v>491</v>
+      </c>
+      <c r="R72" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M73" t="s">
         <v>105</v>
       </c>
@@ -2903,8 +3979,14 @@
       <c r="P73" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q73" t="s">
+        <v>492</v>
+      </c>
+      <c r="R73" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="74" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M74" t="s">
         <v>106</v>
       </c>
@@ -2917,8 +3999,14 @@
       <c r="P74" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="75" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q74" t="s">
+        <v>493</v>
+      </c>
+      <c r="R74" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M75" t="s">
         <v>107</v>
       </c>
@@ -2931,8 +4019,14 @@
       <c r="P75" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="76" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q75" t="s">
+        <v>494</v>
+      </c>
+      <c r="R75" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="76" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M76" t="s">
         <v>108</v>
       </c>
@@ -2945,8 +4039,14 @@
       <c r="P76" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="77" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q76" t="s">
+        <v>495</v>
+      </c>
+      <c r="R76" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="77" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M77" t="s">
         <v>109</v>
       </c>
@@ -2959,8 +4059,14 @@
       <c r="P77" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="78" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q77" t="s">
+        <v>496</v>
+      </c>
+      <c r="R77" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="78" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M78" t="s">
         <v>110</v>
       </c>
@@ -2973,8 +4079,14 @@
       <c r="P78" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="79" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q78" t="s">
+        <v>462</v>
+      </c>
+      <c r="R78" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M79" t="s">
         <v>111</v>
       </c>
@@ -2987,8 +4099,14 @@
       <c r="P79" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="80" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q79" t="s">
+        <v>497</v>
+      </c>
+      <c r="R79" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="80" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M80" t="s">
         <v>112</v>
       </c>
@@ -3001,8 +4119,14 @@
       <c r="P80" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="81" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q80" t="s">
+        <v>498</v>
+      </c>
+      <c r="R80" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="81" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M81" t="s">
         <v>113</v>
       </c>
@@ -3015,8 +4139,14 @@
       <c r="P81" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="82" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q81" t="s">
+        <v>499</v>
+      </c>
+      <c r="R81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="82" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M82" t="s">
         <v>114</v>
       </c>
@@ -3029,8 +4159,14 @@
       <c r="P82" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="83" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q82" t="s">
+        <v>500</v>
+      </c>
+      <c r="R82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M83" t="s">
         <v>115</v>
       </c>
@@ -3043,8 +4179,14 @@
       <c r="P83" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="84" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q83" t="s">
+        <v>501</v>
+      </c>
+      <c r="R83" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="84" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M84" t="s">
         <v>116</v>
       </c>
@@ -3057,8 +4199,14 @@
       <c r="P84" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="85" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q84" t="s">
+        <v>502</v>
+      </c>
+      <c r="R84" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="85" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M85" t="s">
         <v>117</v>
       </c>
@@ -3071,8 +4219,14 @@
       <c r="P85" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="86" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q85" t="s">
+        <v>503</v>
+      </c>
+      <c r="R85" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="86" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M86" t="s">
         <v>118</v>
       </c>
@@ -3085,8 +4239,14 @@
       <c r="P86" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="87" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q86" t="s">
+        <v>504</v>
+      </c>
+      <c r="R86" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="87" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M87" t="s">
         <v>119</v>
       </c>
@@ -3099,8 +4259,14 @@
       <c r="P87" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="88" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q87" t="s">
+        <v>505</v>
+      </c>
+      <c r="R87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M88" t="s">
         <v>120</v>
       </c>
@@ -3113,8 +4279,14 @@
       <c r="P88" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="89" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q88" t="s">
+        <v>506</v>
+      </c>
+      <c r="R88" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="89" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M89" t="s">
         <v>121</v>
       </c>
@@ -3127,8 +4299,14 @@
       <c r="P89" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="90" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q89" t="s">
+        <v>507</v>
+      </c>
+      <c r="R89" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="90" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M90" t="s">
         <v>122</v>
       </c>
@@ -3141,8 +4319,14 @@
       <c r="P90" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="91" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q90" t="s">
+        <v>508</v>
+      </c>
+      <c r="R90" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="91" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M91" t="s">
         <v>123</v>
       </c>
@@ -3155,8 +4339,14 @@
       <c r="P91" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="92" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q91" t="s">
+        <v>509</v>
+      </c>
+      <c r="R91" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M92" t="s">
         <v>124</v>
       </c>
@@ -3169,8 +4359,14 @@
       <c r="P92" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="93" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q92" t="s">
+        <v>510</v>
+      </c>
+      <c r="R92" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="93" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M93" t="s">
         <v>125</v>
       </c>
@@ -3180,8 +4376,14 @@
       <c r="O93" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="94" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q93" t="s">
+        <v>511</v>
+      </c>
+      <c r="R93" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="94" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M94" t="s">
         <v>126</v>
       </c>
@@ -3191,133 +4393,302 @@
       <c r="O94" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="95" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q94" t="s">
+        <v>512</v>
+      </c>
+      <c r="R94" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="95" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M95" t="s">
         <v>127</v>
       </c>
       <c r="N95" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="96" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="Q95" t="s">
+        <v>513</v>
+      </c>
+      <c r="R95" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="96" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M96" t="s">
         <v>128</v>
       </c>
       <c r="N96" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="97" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q96" t="s">
+        <v>514</v>
+      </c>
+      <c r="R96" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M97" t="s">
         <v>129</v>
       </c>
       <c r="N97" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="98" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q97" t="s">
+        <v>515</v>
+      </c>
+      <c r="R97" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="98" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M98" t="s">
         <v>130</v>
       </c>
       <c r="N98" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="99" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q98" t="s">
+        <v>516</v>
+      </c>
+      <c r="R98" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="99" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M99" t="s">
         <v>131</v>
       </c>
       <c r="N99" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="100" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q99" t="s">
+        <v>517</v>
+      </c>
+      <c r="R99" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="100" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M100" t="s">
         <v>132</v>
       </c>
       <c r="N100" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="101" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q100" t="s">
+        <v>110</v>
+      </c>
+      <c r="R100" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="101" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N101" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="102" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q101" t="s">
+        <v>518</v>
+      </c>
+      <c r="R101" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="102" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N102" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="103" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q102" t="s">
+        <v>519</v>
+      </c>
+      <c r="R102" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="103" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N103" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="104" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q103" t="s">
+        <v>520</v>
+      </c>
+      <c r="R103" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="104" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N104" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="105" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q104" t="s">
+        <v>521</v>
+      </c>
+      <c r="R104" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="105" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N105" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="106" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q105" t="s">
+        <v>522</v>
+      </c>
+      <c r="R105" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="106" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N106" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="107" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q106" t="s">
+        <v>523</v>
+      </c>
+      <c r="R106" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="107" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N107" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="108" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q107" t="s">
+        <v>359</v>
+      </c>
+      <c r="R107" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N108" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="109" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q108" t="s">
+        <v>524</v>
+      </c>
+      <c r="R108" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="109" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N109" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="110" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q109" t="s">
+        <v>525</v>
+      </c>
+      <c r="R109" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="110" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N110" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="111" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q110" t="s">
+        <v>526</v>
+      </c>
+      <c r="R110" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="111" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N111" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="112" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="Q111" t="s">
+        <v>15</v>
+      </c>
+      <c r="R111" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="112" spans="13:18" x14ac:dyDescent="0.35">
       <c r="N112" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="Q112" t="s">
+        <v>527</v>
+      </c>
+      <c r="R112" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="113" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N113" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="Q113" t="s">
+        <v>528</v>
+      </c>
+      <c r="R113" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="114" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N114" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="Q114" t="s">
+        <v>529</v>
+      </c>
+      <c r="R114" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="115" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N115" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="Q115" t="s">
+        <v>530</v>
+      </c>
+      <c r="R115" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="116" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N116" t="s">
         <v>226</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>531</v>
+      </c>
+      <c r="R116" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="117" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="Q117" t="s">
+        <v>532</v>
+      </c>
+      <c r="R117" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="118" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="Q118" t="s">
+        <v>533</v>
+      </c>
+      <c r="R118" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="R119" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="120" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="R120" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="121" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="R121" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/example_grammars/pokemon.xlsx
+++ b/example_grammars/pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miloc\Documents\MiloTextGen\example_grammars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F3A52-28BC-4E05-B34C-E3778527FCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8ED24-1FE4-47CA-9F56-06A3BE6911EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="999">
   <si>
     <t>fairy</t>
   </si>
@@ -1947,6 +1947,1092 @@
   </si>
   <si>
     <t>[suffix-gen3]</t>
+  </si>
+  <si>
+    <t>prefix-gen4</t>
+  </si>
+  <si>
+    <t>tur</t>
+  </si>
+  <si>
+    <t>gro</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>infern</t>
+  </si>
+  <si>
+    <t>prin</t>
+  </si>
+  <si>
+    <t>empol</t>
+  </si>
+  <si>
+    <t>kricke</t>
+  </si>
+  <si>
+    <t>shi</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>crani</t>
+  </si>
+  <si>
+    <t>rampar</t>
+  </si>
+  <si>
+    <t>bastio</t>
+  </si>
+  <si>
+    <t>shiel</t>
+  </si>
+  <si>
+    <t>bur</t>
+  </si>
+  <si>
+    <t>worm</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>vespi</t>
+  </si>
+  <si>
+    <t>pachi</t>
+  </si>
+  <si>
+    <t>bui</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>cher</t>
+  </si>
+  <si>
+    <t>gastro</t>
+  </si>
+  <si>
+    <t>ambi</t>
+  </si>
+  <si>
+    <t>drif</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>lop</t>
+  </si>
+  <si>
+    <t>honch</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>ching</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>skun</t>
+  </si>
+  <si>
+    <t>bronz</t>
+  </si>
+  <si>
+    <t>bon</t>
+  </si>
+  <si>
+    <t>hap</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>spiri</t>
+  </si>
+  <si>
+    <t>gi</t>
+  </si>
+  <si>
+    <t>munch</t>
+  </si>
+  <si>
+    <t>rio</t>
+  </si>
+  <si>
+    <t>luc</t>
+  </si>
+  <si>
+    <t>hoppo</t>
+  </si>
+  <si>
+    <t>skor</t>
+  </si>
+  <si>
+    <t>croa</t>
+  </si>
+  <si>
+    <t>toxi</t>
+  </si>
+  <si>
+    <t>carni</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>lumi</t>
+  </si>
+  <si>
+    <t>aboma</t>
+  </si>
+  <si>
+    <t>wea</t>
+  </si>
+  <si>
+    <t>licki</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>electi</t>
+  </si>
+  <si>
+    <t>glac</t>
+  </si>
+  <si>
+    <t>mamo</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>probo</t>
+  </si>
+  <si>
+    <t>dusk</t>
+  </si>
+  <si>
+    <t>fros</t>
+  </si>
+  <si>
+    <t>ux</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>pal</t>
+  </si>
+  <si>
+    <t>gira</t>
+  </si>
+  <si>
+    <t>cress</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shay</t>
+  </si>
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>suffix-gen4</t>
+  </si>
+  <si>
+    <t>twig</t>
+  </si>
+  <si>
+    <t>tle</t>
+  </si>
+  <si>
+    <t>terra</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>ferno</t>
+  </si>
+  <si>
+    <t>lup</t>
+  </si>
+  <si>
+    <t>plup</t>
+  </si>
+  <si>
+    <t>ly</t>
+  </si>
+  <si>
+    <t>avia</t>
+  </si>
+  <si>
+    <t>aptor</t>
+  </si>
+  <si>
+    <t>doof</t>
+  </si>
+  <si>
+    <t>barel</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>tune</t>
+  </si>
+  <si>
+    <t>nx</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>rade</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>quen</t>
+  </si>
+  <si>
+    <t>risu</t>
+  </si>
+  <si>
+    <t>zel</t>
+  </si>
+  <si>
+    <t>ubi</t>
+  </si>
+  <si>
+    <t>rim</t>
+  </si>
+  <si>
+    <t>loon</t>
+  </si>
+  <si>
+    <t>lim</t>
+  </si>
+  <si>
+    <t>eary</t>
+  </si>
+  <si>
+    <t>unny</t>
+  </si>
+  <si>
+    <t>magius</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>ling</t>
+  </si>
+  <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>sly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jr.</t>
+  </si>
+  <si>
+    <t>iny</t>
+  </si>
+  <si>
+    <t>tomb</t>
+  </si>
+  <si>
+    <t>ble</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>chomp</t>
+  </si>
+  <si>
+    <t>cario</t>
+  </si>
+  <si>
+    <t>potas</t>
+  </si>
+  <si>
+    <t>rupi</t>
+  </si>
+  <si>
+    <t>ion</t>
+  </si>
+  <si>
+    <t>gunk</t>
+  </si>
+  <si>
+    <t>croak</t>
+  </si>
+  <si>
+    <t>vine</t>
+  </si>
+  <si>
+    <t>tyke</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>perior</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>vire</t>
+  </si>
+  <si>
+    <t>mortar</t>
+  </si>
+  <si>
+    <t>kiss</t>
+  </si>
+  <si>
+    <t>mega</t>
+  </si>
+  <si>
+    <t>scor</t>
+  </si>
+  <si>
+    <t>gon-Z</t>
+  </si>
+  <si>
+    <t>lade</t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>lass</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>prit</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>alga</t>
+  </si>
+  <si>
+    <t>kia</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>tina</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>aphy</t>
+  </si>
+  <si>
+    <t>eus</t>
+  </si>
+  <si>
+    <t>[prefix-gen4]</t>
+  </si>
+  <si>
+    <t>[suffix-gen4]</t>
+  </si>
+  <si>
+    <t>prefix-gen5</t>
+  </si>
+  <si>
+    <t>vic</t>
+  </si>
+  <si>
+    <t>sni</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>osha</t>
+  </si>
+  <si>
+    <t>samur</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>lilli</t>
+  </si>
+  <si>
+    <t>herd</t>
+  </si>
+  <si>
+    <t>stout</t>
+  </si>
+  <si>
+    <t>purr</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>simi</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>tran</t>
+  </si>
+  <si>
+    <t>blitz</t>
+  </si>
+  <si>
+    <t>zeb</t>
+  </si>
+  <si>
+    <t>roggen</t>
+  </si>
+  <si>
+    <t>bol</t>
+  </si>
+  <si>
+    <t>giga</t>
+  </si>
+  <si>
+    <t>woo</t>
+  </si>
+  <si>
+    <t>swoo</t>
+  </si>
+  <si>
+    <t>dril</t>
+  </si>
+  <si>
+    <t>exca</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>gur</t>
+  </si>
+  <si>
+    <t>conkel</t>
+  </si>
+  <si>
+    <t>tym</t>
+  </si>
+  <si>
+    <t>palpi</t>
+  </si>
+  <si>
+    <t>seismi</t>
+  </si>
+  <si>
+    <t>sew</t>
+  </si>
+  <si>
+    <t>swad</t>
+  </si>
+  <si>
+    <t>leav</t>
+  </si>
+  <si>
+    <t>veni</t>
+  </si>
+  <si>
+    <t>whirli</t>
+  </si>
+  <si>
+    <t>scoli</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>whimsi</t>
+  </si>
+  <si>
+    <t>peti</t>
+  </si>
+  <si>
+    <t>bascu</t>
+  </si>
+  <si>
+    <t>kroko</t>
+  </si>
+  <si>
+    <t>krooko</t>
+  </si>
+  <si>
+    <t>daru</t>
+  </si>
+  <si>
+    <t>darman</t>
+  </si>
+  <si>
+    <t>maract</t>
+  </si>
+  <si>
+    <t>dweb</t>
+  </si>
+  <si>
+    <t>crust</t>
+  </si>
+  <si>
+    <t>scrag</t>
+  </si>
+  <si>
+    <t>scraft</t>
+  </si>
+  <si>
+    <t>sigi</t>
+  </si>
+  <si>
+    <t>cofa</t>
+  </si>
+  <si>
+    <t>tirt</t>
+  </si>
+  <si>
+    <t>carra</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>trubb</t>
+  </si>
+  <si>
+    <t>garb</t>
+  </si>
+  <si>
+    <t>minc</t>
+  </si>
+  <si>
+    <t>cinc</t>
+  </si>
+  <si>
+    <t>goth</t>
+  </si>
+  <si>
+    <t>reun</t>
+  </si>
+  <si>
+    <t>swan</t>
+  </si>
+  <si>
+    <t>vanill</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>saws</t>
+  </si>
+  <si>
+    <t>karra</t>
+  </si>
+  <si>
+    <t>escav</t>
+  </si>
+  <si>
+    <t>foon</t>
+  </si>
+  <si>
+    <t>amoon</t>
+  </si>
+  <si>
+    <t>frill</t>
+  </si>
+  <si>
+    <t>jelli</t>
+  </si>
+  <si>
+    <t>alomo</t>
+  </si>
+  <si>
+    <t>jol</t>
+  </si>
+  <si>
+    <t>galv</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>klink</t>
+  </si>
+  <si>
+    <t>tyna</t>
+  </si>
+  <si>
+    <t>eel</t>
+  </si>
+  <si>
+    <t>elg</t>
+  </si>
+  <si>
+    <t>beehee</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>chande</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>frax</t>
+  </si>
+  <si>
+    <t>hax</t>
+  </si>
+  <si>
+    <t>cub</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>accel</t>
+  </si>
+  <si>
+    <t>mien</t>
+  </si>
+  <si>
+    <t>druddi</t>
+  </si>
+  <si>
+    <t>pawn</t>
+  </si>
+  <si>
+    <t>bouff</t>
+  </si>
+  <si>
+    <t>ruff</t>
+  </si>
+  <si>
+    <t>brav</t>
+  </si>
+  <si>
+    <t>vull</t>
+  </si>
+  <si>
+    <t>mandi</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>dei</t>
+  </si>
+  <si>
+    <t>zwei</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>lar</t>
+  </si>
+  <si>
+    <t>volca</t>
+  </si>
+  <si>
+    <t>coba</t>
+  </si>
+  <si>
+    <t>viri</t>
+  </si>
+  <si>
+    <t>thundu</t>
+  </si>
+  <si>
+    <t>torna</t>
+  </si>
+  <si>
+    <t>reshi</t>
+  </si>
+  <si>
+    <t>landor</t>
+  </si>
+  <si>
+    <t>kyu</t>
+  </si>
+  <si>
+    <t>kel</t>
+  </si>
+  <si>
+    <t>melo</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>suffix-gen5</t>
+  </si>
+  <si>
+    <t>vy</t>
+  </si>
+  <si>
+    <t>nite</t>
+  </si>
+  <si>
+    <t>boar</t>
+  </si>
+  <si>
+    <t>wott</t>
+  </si>
+  <si>
+    <t>hog</t>
+  </si>
+  <si>
+    <t>ier</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>loin</t>
+  </si>
+  <si>
+    <t>pard</t>
+  </si>
+  <si>
+    <t>sage</t>
+  </si>
+  <si>
+    <t>sear</t>
+  </si>
+  <si>
+    <t>pour</t>
+  </si>
+  <si>
+    <t>sharna</t>
+  </si>
+  <si>
+    <t>dove</t>
+  </si>
+  <si>
+    <t>quill</t>
+  </si>
+  <si>
+    <t>fezant</t>
+  </si>
+  <si>
+    <t>strika</t>
+  </si>
+  <si>
+    <t>rola</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>lith</t>
+  </si>
+  <si>
+    <t>dino</t>
+  </si>
+  <si>
+    <t>burr</t>
+  </si>
+  <si>
+    <t>durr</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>toad</t>
+  </si>
+  <si>
+    <t>addle</t>
+  </si>
+  <si>
+    <t>anny</t>
+  </si>
+  <si>
+    <t>pede</t>
+  </si>
+  <si>
+    <t>cott</t>
+  </si>
+  <si>
+    <t>gant</t>
+  </si>
+  <si>
+    <t>orok</t>
+  </si>
+  <si>
+    <t>odile</t>
+  </si>
+  <si>
+    <t>maka</t>
+  </si>
+  <si>
+    <t>itan</t>
+  </si>
+  <si>
+    <t>actus</t>
+  </si>
+  <si>
+    <t>lyph</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>grigus</t>
+  </si>
+  <si>
+    <t>touga</t>
+  </si>
+  <si>
+    <t>costa</t>
+  </si>
+  <si>
+    <t>eops</t>
+  </si>
+  <si>
+    <t>odor</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>oark</t>
+  </si>
+  <si>
+    <t>cino</t>
+  </si>
+  <si>
+    <t>itelle</t>
+  </si>
+  <si>
+    <t>osis</t>
+  </si>
+  <si>
+    <t>sion</t>
+  </si>
+  <si>
+    <t>uniclus</t>
+  </si>
+  <si>
+    <t>uxe</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>olga</t>
+  </si>
+  <si>
+    <t>alier</t>
+  </si>
+  <si>
+    <t>gus</t>
+  </si>
+  <si>
+    <t>icent</t>
+  </si>
+  <si>
+    <t>mola</t>
+  </si>
+  <si>
+    <t>tik</t>
+  </si>
+  <si>
+    <t>antula</t>
+  </si>
+  <si>
+    <t>thorn</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>ektrik</t>
+  </si>
+  <si>
+    <t>ektross</t>
+  </si>
+  <si>
+    <t>yem</t>
+  </si>
+  <si>
+    <t>wick</t>
+  </si>
+  <si>
+    <t>pent</t>
+  </si>
+  <si>
+    <t>lure</t>
+  </si>
+  <si>
+    <t>ew</t>
+  </si>
+  <si>
+    <t>ure</t>
+  </si>
+  <si>
+    <t>orus</t>
+  </si>
+  <si>
+    <t>choo</t>
+  </si>
+  <si>
+    <t>ogonal</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>gor</t>
+  </si>
+  <si>
+    <t>fisk</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>shao</t>
+  </si>
+  <si>
+    <t>lurk</t>
+  </si>
+  <si>
+    <t>iard</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>lant</t>
+  </si>
+  <si>
+    <t>iary</t>
+  </si>
+  <si>
+    <t>mor</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>lous</t>
+  </si>
+  <si>
+    <t>dreigon</t>
+  </si>
+  <si>
+    <t>vesta</t>
+  </si>
+  <si>
+    <t>rona</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>rom</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t>etta</t>
+  </si>
+  <si>
+    <t>sect</t>
+  </si>
+  <si>
+    <t>[prefix-gen5]</t>
+  </si>
+  <si>
+    <t>[suffix-gen5]</t>
   </si>
 </sst>
 </file>
@@ -2265,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2288,11 +3374,13 @@
     <col min="15" max="15" width="16.36328125" customWidth="1"/>
     <col min="16" max="16" width="18.36328125" customWidth="1"/>
     <col min="17" max="17" width="12.81640625" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" customWidth="1"/>
+    <col min="18" max="19" width="13.54296875" customWidth="1"/>
     <col min="20" max="20" width="18.90625" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2347,8 +3435,20 @@
       <c r="R1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" t="s">
+        <v>637</v>
+      </c>
+      <c r="T1" t="s">
+        <v>708</v>
+      </c>
+      <c r="U1" t="s">
+        <v>784</v>
+      </c>
+      <c r="V1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>227</v>
       </c>
@@ -2403,8 +3503,20 @@
       <c r="R2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" t="s">
+        <v>638</v>
+      </c>
+      <c r="T2" t="s">
+        <v>709</v>
+      </c>
+      <c r="U2" t="s">
+        <v>785</v>
+      </c>
+      <c r="V2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -2459,8 +3571,20 @@
       <c r="R3" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>639</v>
+      </c>
+      <c r="T3" t="s">
+        <v>710</v>
+      </c>
+      <c r="U3" t="s">
+        <v>786</v>
+      </c>
+      <c r="V3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>312</v>
       </c>
@@ -2503,8 +3627,26 @@
       <c r="R4" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>430</v>
+      </c>
+      <c r="T4" t="s">
+        <v>711</v>
+      </c>
+      <c r="U4" t="s">
+        <v>787</v>
+      </c>
+      <c r="V4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>782</v>
+      </c>
+      <c r="H5" t="s">
+        <v>783</v>
+      </c>
       <c r="I5" t="s">
         <v>254</v>
       </c>
@@ -2535,8 +3677,26 @@
       <c r="R5" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>513</v>
+      </c>
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" t="s">
+        <v>788</v>
+      </c>
+      <c r="V5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>997</v>
+      </c>
+      <c r="H6" t="s">
+        <v>998</v>
+      </c>
       <c r="J6" t="s">
         <v>232</v>
       </c>
@@ -2564,8 +3724,20 @@
       <c r="R6" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" t="s">
+        <v>640</v>
+      </c>
+      <c r="T6" t="s">
+        <v>713</v>
+      </c>
+      <c r="U6" t="s">
+        <v>586</v>
+      </c>
+      <c r="V6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J7" t="s">
         <v>233</v>
       </c>
@@ -2593,8 +3765,20 @@
       <c r="R7" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" t="s">
+        <v>641</v>
+      </c>
+      <c r="T7" t="s">
+        <v>165</v>
+      </c>
+      <c r="U7" t="s">
+        <v>178</v>
+      </c>
+      <c r="V7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J8" t="s">
         <v>234</v>
       </c>
@@ -2619,8 +3803,20 @@
       <c r="R8" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" t="s">
+        <v>374</v>
+      </c>
+      <c r="T8" t="s">
+        <v>714</v>
+      </c>
+      <c r="U8" t="s">
+        <v>789</v>
+      </c>
+      <c r="V8" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J9" t="s">
         <v>235</v>
       </c>
@@ -2645,8 +3841,20 @@
       <c r="R9" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" t="s">
+        <v>642</v>
+      </c>
+      <c r="T9" t="s">
+        <v>715</v>
+      </c>
+      <c r="U9" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J10" t="s">
         <v>231</v>
       </c>
@@ -2671,8 +3879,20 @@
       <c r="R10" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>643</v>
+      </c>
+      <c r="T10" t="s">
+        <v>214</v>
+      </c>
+      <c r="U10" t="s">
+        <v>790</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J11" t="s">
         <v>37</v>
       </c>
@@ -2697,8 +3917,20 @@
       <c r="R11" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>111</v>
+      </c>
+      <c r="T11" t="s">
+        <v>716</v>
+      </c>
+      <c r="U11" t="s">
+        <v>791</v>
+      </c>
+      <c r="V11" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J12" t="s">
         <v>236</v>
       </c>
@@ -2723,8 +3955,20 @@
       <c r="R12" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>424</v>
+      </c>
+      <c r="T12" t="s">
+        <v>717</v>
+      </c>
+      <c r="U12" t="s">
+        <v>792</v>
+      </c>
+      <c r="V12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J13" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +3990,20 @@
       <c r="R13" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>644</v>
+      </c>
+      <c r="T13" t="s">
+        <v>718</v>
+      </c>
+      <c r="U13" t="s">
+        <v>793</v>
+      </c>
+      <c r="V13" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J14" t="s">
         <v>38</v>
       </c>
@@ -2769,8 +4025,20 @@
       <c r="R14" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" t="s">
+        <v>645</v>
+      </c>
+      <c r="T14" t="s">
+        <v>719</v>
+      </c>
+      <c r="U14" t="s">
+        <v>794</v>
+      </c>
+      <c r="V14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J15" t="s">
         <v>237</v>
       </c>
@@ -2792,8 +4060,20 @@
       <c r="R15" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
+        <v>646</v>
+      </c>
+      <c r="T15" t="s">
+        <v>720</v>
+      </c>
+      <c r="U15" t="s">
+        <v>795</v>
+      </c>
+      <c r="V15" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="J16" t="s">
         <v>238</v>
       </c>
@@ -2815,8 +4095,20 @@
       <c r="R16" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="17" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>647</v>
+      </c>
+      <c r="T16" t="s">
+        <v>721</v>
+      </c>
+      <c r="U16" t="s">
+        <v>796</v>
+      </c>
+      <c r="V16" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="17" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J17" t="s">
         <v>40</v>
       </c>
@@ -2838,8 +4130,20 @@
       <c r="R17" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S17" t="s">
+        <v>480</v>
+      </c>
+      <c r="T17" t="s">
+        <v>722</v>
+      </c>
+      <c r="U17" t="s">
+        <v>618</v>
+      </c>
+      <c r="V17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="18" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>239</v>
       </c>
@@ -2861,8 +4165,20 @@
       <c r="R18" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="19" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S18" t="s">
+        <v>648</v>
+      </c>
+      <c r="T18" t="s">
+        <v>723</v>
+      </c>
+      <c r="U18" t="s">
+        <v>797</v>
+      </c>
+      <c r="V18" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="19" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J19" t="s">
         <v>44</v>
       </c>
@@ -2884,8 +4200,20 @@
       <c r="R19" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="20" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>649</v>
+      </c>
+      <c r="T19" t="s">
+        <v>724</v>
+      </c>
+      <c r="U19" t="s">
+        <v>798</v>
+      </c>
+      <c r="V19" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="20" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J20" t="s">
         <v>45</v>
       </c>
@@ -2907,8 +4235,20 @@
       <c r="R20" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="21" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
+        <v>651</v>
+      </c>
+      <c r="T20" t="s">
+        <v>531</v>
+      </c>
+      <c r="U20" t="s">
+        <v>799</v>
+      </c>
+      <c r="V20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
         <v>42</v>
       </c>
@@ -2930,8 +4270,20 @@
       <c r="R21" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="22" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S21" t="s">
+        <v>650</v>
+      </c>
+      <c r="T21" t="s">
+        <v>90</v>
+      </c>
+      <c r="U21" t="s">
+        <v>288</v>
+      </c>
+      <c r="V21" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="22" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J22" t="s">
         <v>35</v>
       </c>
@@ -2953,8 +4305,20 @@
       <c r="R22" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="23" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S22" t="s">
+        <v>652</v>
+      </c>
+      <c r="T22" t="s">
+        <v>725</v>
+      </c>
+      <c r="U22" t="s">
+        <v>800</v>
+      </c>
+      <c r="V22" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="23" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J23" t="s">
         <v>240</v>
       </c>
@@ -2976,8 +4340,20 @@
       <c r="R23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S23" t="s">
+        <v>653</v>
+      </c>
+      <c r="T23" t="s">
+        <v>212</v>
+      </c>
+      <c r="U23" t="s">
+        <v>307</v>
+      </c>
+      <c r="V23" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="24" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J24" t="s">
         <v>241</v>
       </c>
@@ -2999,8 +4375,20 @@
       <c r="R24" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="25" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S24" t="s">
+        <v>158</v>
+      </c>
+      <c r="T24" t="s">
+        <v>200</v>
+      </c>
+      <c r="U24" t="s">
+        <v>801</v>
+      </c>
+      <c r="V24" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="25" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J25" t="s">
         <v>242</v>
       </c>
@@ -3022,8 +4410,20 @@
       <c r="R25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="26" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S25" t="s">
+        <v>654</v>
+      </c>
+      <c r="T25" t="s">
+        <v>726</v>
+      </c>
+      <c r="U25" t="s">
+        <v>802</v>
+      </c>
+      <c r="V25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J26" t="s">
         <v>243</v>
       </c>
@@ -3045,8 +4445,20 @@
       <c r="R26" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="27" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S26" t="s">
+        <v>655</v>
+      </c>
+      <c r="T26" t="s">
+        <v>727</v>
+      </c>
+      <c r="U26" t="s">
+        <v>803</v>
+      </c>
+      <c r="V26" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="27" spans="10:22" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>60</v>
       </c>
@@ -3065,8 +4477,20 @@
       <c r="R27" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="28" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S27" t="s">
+        <v>656</v>
+      </c>
+      <c r="T27" t="s">
+        <v>728</v>
+      </c>
+      <c r="U27" t="s">
+        <v>804</v>
+      </c>
+      <c r="V27" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="28" spans="10:22" x14ac:dyDescent="0.35">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -3085,8 +4509,20 @@
       <c r="R28" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="29" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S28" t="s">
+        <v>657</v>
+      </c>
+      <c r="T28" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" t="s">
+        <v>805</v>
+      </c>
+      <c r="V28" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="29" spans="10:22" x14ac:dyDescent="0.35">
       <c r="M29" t="s">
         <v>62</v>
       </c>
@@ -3105,8 +4541,20 @@
       <c r="R29" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="30" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S29" t="s">
+        <v>658</v>
+      </c>
+      <c r="T29" t="s">
+        <v>729</v>
+      </c>
+      <c r="U29" t="s">
+        <v>806</v>
+      </c>
+      <c r="V29" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="30" spans="10:22" x14ac:dyDescent="0.35">
       <c r="M30" t="s">
         <v>63</v>
       </c>
@@ -3125,8 +4573,20 @@
       <c r="R30" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="31" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S30" t="s">
+        <v>659</v>
+      </c>
+      <c r="T30" t="s">
+        <v>730</v>
+      </c>
+      <c r="U30" t="s">
+        <v>807</v>
+      </c>
+      <c r="V30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="10:22" x14ac:dyDescent="0.35">
       <c r="M31" t="s">
         <v>64</v>
       </c>
@@ -3145,8 +4605,20 @@
       <c r="R31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="10:18" x14ac:dyDescent="0.35">
+      <c r="S31" t="s">
+        <v>92</v>
+      </c>
+      <c r="T31" t="s">
+        <v>731</v>
+      </c>
+      <c r="U31" t="s">
+        <v>808</v>
+      </c>
+      <c r="V31" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="10:22" x14ac:dyDescent="0.35">
       <c r="M32" t="s">
         <v>65</v>
       </c>
@@ -3165,8 +4637,20 @@
       <c r="R32" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="33" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S32" t="s">
+        <v>660</v>
+      </c>
+      <c r="T32" t="s">
+        <v>732</v>
+      </c>
+      <c r="U32" t="s">
+        <v>809</v>
+      </c>
+      <c r="V32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M33" t="s">
         <v>66</v>
       </c>
@@ -3185,8 +4669,20 @@
       <c r="R33" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="34" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S33" t="s">
+        <v>661</v>
+      </c>
+      <c r="T33" t="s">
+        <v>733</v>
+      </c>
+      <c r="U33" t="s">
+        <v>810</v>
+      </c>
+      <c r="V33" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="34" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M34" t="s">
         <v>67</v>
       </c>
@@ -3205,8 +4701,20 @@
       <c r="R34" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="35" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S34" t="s">
+        <v>662</v>
+      </c>
+      <c r="T34" t="s">
+        <v>630</v>
+      </c>
+      <c r="U34" t="s">
+        <v>811</v>
+      </c>
+      <c r="V34" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="35" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M35" t="s">
         <v>68</v>
       </c>
@@ -3225,8 +4733,20 @@
       <c r="R35" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="36" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S35" t="s">
+        <v>663</v>
+      </c>
+      <c r="T35" t="s">
+        <v>377</v>
+      </c>
+      <c r="U35" t="s">
+        <v>812</v>
+      </c>
+      <c r="V35" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="36" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M36" t="s">
         <v>69</v>
       </c>
@@ -3245,8 +4765,20 @@
       <c r="R36" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="37" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S36" t="s">
+        <v>664</v>
+      </c>
+      <c r="T36" t="s">
+        <v>734</v>
+      </c>
+      <c r="U36" t="s">
+        <v>813</v>
+      </c>
+      <c r="V36" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="37" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M37" t="s">
         <v>70</v>
       </c>
@@ -3265,8 +4797,20 @@
       <c r="R37" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="38" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S37" t="s">
+        <v>306</v>
+      </c>
+      <c r="T37" t="s">
+        <v>735</v>
+      </c>
+      <c r="U37" t="s">
+        <v>814</v>
+      </c>
+      <c r="V37" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="38" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M38" t="s">
         <v>71</v>
       </c>
@@ -3285,8 +4829,20 @@
       <c r="R38" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="39" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S38" t="s">
+        <v>665</v>
+      </c>
+      <c r="T38" t="s">
+        <v>736</v>
+      </c>
+      <c r="U38" t="s">
+        <v>815</v>
+      </c>
+      <c r="V38" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="39" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M39" t="s">
         <v>72</v>
       </c>
@@ -3305,8 +4861,20 @@
       <c r="R39" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="40" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S39" t="s">
+        <v>517</v>
+      </c>
+      <c r="T39" t="s">
+        <v>737</v>
+      </c>
+      <c r="U39" t="s">
+        <v>816</v>
+      </c>
+      <c r="V39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M40" t="s">
         <v>73</v>
       </c>
@@ -3325,8 +4893,20 @@
       <c r="R40" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="41" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S40" t="s">
+        <v>666</v>
+      </c>
+      <c r="T40" t="s">
+        <v>738</v>
+      </c>
+      <c r="U40" t="s">
+        <v>817</v>
+      </c>
+      <c r="V40" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="41" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M41" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +4925,20 @@
       <c r="R41" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="42" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S41" t="s">
+        <v>667</v>
+      </c>
+      <c r="T41" t="s">
+        <v>381</v>
+      </c>
+      <c r="U41" t="s">
+        <v>818</v>
+      </c>
+      <c r="V41" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="42" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M42" t="s">
         <v>75</v>
       </c>
@@ -3365,8 +4957,20 @@
       <c r="R42" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="43" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S42" t="s">
+        <v>668</v>
+      </c>
+      <c r="T42" t="s">
+        <v>70</v>
+      </c>
+      <c r="U42" t="s">
+        <v>819</v>
+      </c>
+      <c r="V42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M43" t="s">
         <v>51</v>
       </c>
@@ -3385,8 +4989,20 @@
       <c r="R43" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="44" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S43" t="s">
+        <v>669</v>
+      </c>
+      <c r="T43" t="s">
+        <v>739</v>
+      </c>
+      <c r="U43" t="s">
+        <v>820</v>
+      </c>
+      <c r="V43" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="44" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M44" t="s">
         <v>76</v>
       </c>
@@ -3405,8 +5021,20 @@
       <c r="R44" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="45" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S44" t="s">
+        <v>670</v>
+      </c>
+      <c r="T44" t="s">
+        <v>740</v>
+      </c>
+      <c r="U44" t="s">
+        <v>821</v>
+      </c>
+      <c r="V44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M45" t="s">
         <v>77</v>
       </c>
@@ -3425,8 +5053,20 @@
       <c r="R45" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="46" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S45" t="s">
+        <v>671</v>
+      </c>
+      <c r="T45" t="s">
+        <v>529</v>
+      </c>
+      <c r="U45" t="s">
+        <v>822</v>
+      </c>
+      <c r="V45" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="46" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M46" t="s">
         <v>78</v>
       </c>
@@ -3445,8 +5085,20 @@
       <c r="R46" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="47" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S46" t="s">
+        <v>206</v>
+      </c>
+      <c r="T46" t="s">
+        <v>416</v>
+      </c>
+      <c r="U46" t="s">
+        <v>823</v>
+      </c>
+      <c r="V46" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M47" t="s">
         <v>79</v>
       </c>
@@ -3465,8 +5117,20 @@
       <c r="R47" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="48" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S47" t="s">
+        <v>672</v>
+      </c>
+      <c r="T47" t="s">
+        <v>742</v>
+      </c>
+      <c r="U47" t="s">
+        <v>824</v>
+      </c>
+      <c r="V47" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="48" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M48" t="s">
         <v>80</v>
       </c>
@@ -3485,8 +5149,20 @@
       <c r="R48" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="49" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S48" t="s">
+        <v>673</v>
+      </c>
+      <c r="T48" t="s">
+        <v>741</v>
+      </c>
+      <c r="U48" t="s">
+        <v>825</v>
+      </c>
+      <c r="V48" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="49" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M49" t="s">
         <v>81</v>
       </c>
@@ -3505,8 +5181,20 @@
       <c r="R49" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="50" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S49" t="s">
+        <v>674</v>
+      </c>
+      <c r="T49" t="s">
+        <v>743</v>
+      </c>
+      <c r="U49" t="s">
+        <v>793</v>
+      </c>
+      <c r="V49" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="50" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M50" t="s">
         <v>82</v>
       </c>
@@ -3525,8 +5213,20 @@
       <c r="R50" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="51" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S50" t="s">
+        <v>675</v>
+      </c>
+      <c r="T50" t="s">
+        <v>744</v>
+      </c>
+      <c r="U50" t="s">
+        <v>826</v>
+      </c>
+      <c r="V50" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="51" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M51" t="s">
         <v>83</v>
       </c>
@@ -3545,8 +5245,20 @@
       <c r="R51" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="52" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S51" t="s">
+        <v>660</v>
+      </c>
+      <c r="T51" t="s">
+        <v>745</v>
+      </c>
+      <c r="U51" t="s">
+        <v>55</v>
+      </c>
+      <c r="V51" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="52" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M52" t="s">
         <v>84</v>
       </c>
@@ -3565,8 +5277,20 @@
       <c r="R52" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="53" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S52" t="s">
+        <v>388</v>
+      </c>
+      <c r="T52" t="s">
+        <v>549</v>
+      </c>
+      <c r="U52" t="s">
+        <v>827</v>
+      </c>
+      <c r="V52" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="53" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M53" t="s">
         <v>85</v>
       </c>
@@ -3585,8 +5309,20 @@
       <c r="R53" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="54" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S53" t="s">
+        <v>676</v>
+      </c>
+      <c r="T53" t="s">
+        <v>746</v>
+      </c>
+      <c r="U53" t="s">
+        <v>828</v>
+      </c>
+      <c r="V53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M54" t="s">
         <v>86</v>
       </c>
@@ -3605,8 +5341,20 @@
       <c r="R54" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="55" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S54" t="s">
+        <v>677</v>
+      </c>
+      <c r="T54" t="s">
+        <v>747</v>
+      </c>
+      <c r="U54" t="s">
+        <v>829</v>
+      </c>
+      <c r="V54" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="55" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M55" t="s">
         <v>87</v>
       </c>
@@ -3625,8 +5373,20 @@
       <c r="R55" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="56" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S55" t="s">
+        <v>678</v>
+      </c>
+      <c r="T55" t="s">
+        <v>748</v>
+      </c>
+      <c r="U55" t="s">
+        <v>830</v>
+      </c>
+      <c r="V55" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="56" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M56" t="s">
         <v>88</v>
       </c>
@@ -3645,8 +5405,20 @@
       <c r="R56" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="57" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S56" t="s">
+        <v>679</v>
+      </c>
+      <c r="T56" t="s">
+        <v>749</v>
+      </c>
+      <c r="U56" t="s">
+        <v>831</v>
+      </c>
+      <c r="V56" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="57" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M57" t="s">
         <v>89</v>
       </c>
@@ -3665,8 +5437,20 @@
       <c r="R57" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="58" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S57" t="s">
+        <v>680</v>
+      </c>
+      <c r="T57" t="s">
+        <v>220</v>
+      </c>
+      <c r="U57" t="s">
+        <v>832</v>
+      </c>
+      <c r="V57" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="58" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M58" t="s">
         <v>90</v>
       </c>
@@ -3685,8 +5469,20 @@
       <c r="R58" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="59" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S58" t="s">
+        <v>131</v>
+      </c>
+      <c r="T58" t="s">
+        <v>714</v>
+      </c>
+      <c r="U58" t="s">
+        <v>833</v>
+      </c>
+      <c r="V58" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="59" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M59" t="s">
         <v>91</v>
       </c>
@@ -3705,8 +5501,20 @@
       <c r="R59" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="60" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S59" t="s">
+        <v>681</v>
+      </c>
+      <c r="T59" t="s">
+        <v>750</v>
+      </c>
+      <c r="U59" t="s">
+        <v>834</v>
+      </c>
+      <c r="V59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M60" t="s">
         <v>92</v>
       </c>
@@ -3725,8 +5533,20 @@
       <c r="R60" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="61" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S60" t="s">
+        <v>682</v>
+      </c>
+      <c r="T60" t="s">
+        <v>751</v>
+      </c>
+      <c r="U60" t="s">
+        <v>835</v>
+      </c>
+      <c r="V60" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="61" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M61" t="s">
         <v>93</v>
       </c>
@@ -3745,8 +5565,20 @@
       <c r="R61" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="62" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S61" t="s">
+        <v>683</v>
+      </c>
+      <c r="T61" t="s">
+        <v>752</v>
+      </c>
+      <c r="U61" t="s">
+        <v>836</v>
+      </c>
+      <c r="V61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M62" t="s">
         <v>94</v>
       </c>
@@ -3765,8 +5597,20 @@
       <c r="R62" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="63" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S62" t="s">
+        <v>684</v>
+      </c>
+      <c r="T62" t="s">
+        <v>753</v>
+      </c>
+      <c r="U62" t="s">
+        <v>712</v>
+      </c>
+      <c r="V62" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="63" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M63" t="s">
         <v>95</v>
       </c>
@@ -3785,8 +5629,20 @@
       <c r="R63" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="64" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S63" t="s">
+        <v>685</v>
+      </c>
+      <c r="T63" t="s">
+        <v>754</v>
+      </c>
+      <c r="U63" t="s">
+        <v>837</v>
+      </c>
+      <c r="V63" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="64" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M64" t="s">
         <v>96</v>
       </c>
@@ -3805,8 +5661,20 @@
       <c r="R64" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="65" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S64" t="s">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s">
+        <v>755</v>
+      </c>
+      <c r="U64" t="s">
+        <v>838</v>
+      </c>
+      <c r="V64" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="65" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M65" t="s">
         <v>97</v>
       </c>
@@ -3825,8 +5693,20 @@
       <c r="R65" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="66" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S65" t="s">
+        <v>516</v>
+      </c>
+      <c r="T65" t="s">
+        <v>756</v>
+      </c>
+      <c r="U65" t="s">
+        <v>839</v>
+      </c>
+      <c r="V65" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="66" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M66" t="s">
         <v>98</v>
       </c>
@@ -3845,8 +5725,20 @@
       <c r="R66" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="67" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S66" t="s">
+        <v>686</v>
+      </c>
+      <c r="T66" t="s">
+        <v>214</v>
+      </c>
+      <c r="U66" t="s">
+        <v>840</v>
+      </c>
+      <c r="V66" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="67" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M67" t="s">
         <v>99</v>
       </c>
@@ -3865,8 +5757,20 @@
       <c r="R67" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="68" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S67" t="s">
+        <v>687</v>
+      </c>
+      <c r="T67" t="s">
+        <v>757</v>
+      </c>
+      <c r="U67" t="s">
+        <v>841</v>
+      </c>
+      <c r="V67" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M68" t="s">
         <v>100</v>
       </c>
@@ -3885,8 +5789,20 @@
       <c r="R68" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="69" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S68" t="s">
+        <v>87</v>
+      </c>
+      <c r="T68" t="s">
+        <v>758</v>
+      </c>
+      <c r="U68" t="s">
+        <v>842</v>
+      </c>
+      <c r="V68" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="69" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M69" t="s">
         <v>101</v>
       </c>
@@ -3905,8 +5821,20 @@
       <c r="R69" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="70" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S69" t="s">
+        <v>688</v>
+      </c>
+      <c r="T69" t="s">
+        <v>759</v>
+      </c>
+      <c r="U69" t="s">
+        <v>392</v>
+      </c>
+      <c r="V69" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="70" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M70" t="s">
         <v>102</v>
       </c>
@@ -3925,8 +5853,20 @@
       <c r="R70" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="71" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S70" t="s">
+        <v>106</v>
+      </c>
+      <c r="T70" t="s">
+        <v>65</v>
+      </c>
+      <c r="U70" t="s">
+        <v>843</v>
+      </c>
+      <c r="V70" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="71" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M71" t="s">
         <v>103</v>
       </c>
@@ -3945,8 +5885,20 @@
       <c r="R71" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="72" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S71" t="s">
+        <v>689</v>
+      </c>
+      <c r="T71" t="s">
+        <v>760</v>
+      </c>
+      <c r="U71" t="s">
+        <v>844</v>
+      </c>
+      <c r="V71" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="72" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M72" t="s">
         <v>104</v>
       </c>
@@ -3965,8 +5917,20 @@
       <c r="R72" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="73" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S72" t="s">
+        <v>690</v>
+      </c>
+      <c r="T72" t="s">
+        <v>103</v>
+      </c>
+      <c r="U72" t="s">
+        <v>845</v>
+      </c>
+      <c r="V72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M73" t="s">
         <v>105</v>
       </c>
@@ -3985,8 +5949,20 @@
       <c r="R73" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="74" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S73" t="s">
+        <v>115</v>
+      </c>
+      <c r="T73" t="s">
+        <v>761</v>
+      </c>
+      <c r="U73" t="s">
+        <v>495</v>
+      </c>
+      <c r="V73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M74" t="s">
         <v>106</v>
       </c>
@@ -4005,8 +5981,20 @@
       <c r="R74" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="75" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S74" t="s">
+        <v>290</v>
+      </c>
+      <c r="T74" t="s">
+        <v>762</v>
+      </c>
+      <c r="U74" t="s">
+        <v>186</v>
+      </c>
+      <c r="V74" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="75" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M75" t="s">
         <v>107</v>
       </c>
@@ -4025,8 +6013,20 @@
       <c r="R75" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="76" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S75" t="s">
+        <v>300</v>
+      </c>
+      <c r="T75" t="s">
+        <v>763</v>
+      </c>
+      <c r="U75" t="s">
+        <v>846</v>
+      </c>
+      <c r="V75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M76" t="s">
         <v>108</v>
       </c>
@@ -4045,8 +6045,20 @@
       <c r="R76" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="77" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S76" t="s">
+        <v>551</v>
+      </c>
+      <c r="T76" t="s">
+        <v>764</v>
+      </c>
+      <c r="U76" t="s">
+        <v>163</v>
+      </c>
+      <c r="V76" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="77" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M77" t="s">
         <v>109</v>
       </c>
@@ -4065,8 +6077,20 @@
       <c r="R77" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="78" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S77" t="s">
+        <v>691</v>
+      </c>
+      <c r="T77" t="s">
+        <v>765</v>
+      </c>
+      <c r="U77" t="s">
+        <v>847</v>
+      </c>
+      <c r="V77" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="78" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M78" t="s">
         <v>110</v>
       </c>
@@ -4085,8 +6109,20 @@
       <c r="R78" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="79" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S78" t="s">
+        <v>313</v>
+      </c>
+      <c r="T78" t="s">
+        <v>766</v>
+      </c>
+      <c r="U78" t="s">
+        <v>848</v>
+      </c>
+      <c r="V78" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="79" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M79" t="s">
         <v>111</v>
       </c>
@@ -4105,8 +6141,20 @@
       <c r="R79" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="80" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S79" t="s">
+        <v>692</v>
+      </c>
+      <c r="T79" t="s">
+        <v>767</v>
+      </c>
+      <c r="U79" t="s">
+        <v>849</v>
+      </c>
+      <c r="V79" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="80" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M80" t="s">
         <v>112</v>
       </c>
@@ -4125,8 +6173,20 @@
       <c r="R80" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="81" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S80" t="s">
+        <v>123</v>
+      </c>
+      <c r="T80" t="s">
+        <v>398</v>
+      </c>
+      <c r="U80" t="s">
+        <v>850</v>
+      </c>
+      <c r="V80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M81" t="s">
         <v>113</v>
       </c>
@@ -4145,8 +6205,20 @@
       <c r="R81" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="82" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S81" t="s">
+        <v>693</v>
+      </c>
+      <c r="T81" t="s">
+        <v>768</v>
+      </c>
+      <c r="U81" t="s">
+        <v>178</v>
+      </c>
+      <c r="V81" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="82" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M82" t="s">
         <v>114</v>
       </c>
@@ -4165,8 +6237,20 @@
       <c r="R82" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="83" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S82" t="s">
+        <v>694</v>
+      </c>
+      <c r="T82" t="s">
+        <v>769</v>
+      </c>
+      <c r="U82" t="s">
+        <v>851</v>
+      </c>
+      <c r="V82" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="83" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M83" t="s">
         <v>115</v>
       </c>
@@ -4185,8 +6269,20 @@
       <c r="R83" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="84" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S83" t="s">
+        <v>695</v>
+      </c>
+      <c r="T83" t="s">
+        <v>566</v>
+      </c>
+      <c r="U83" t="s">
+        <v>852</v>
+      </c>
+      <c r="V83" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="84" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M84" t="s">
         <v>116</v>
       </c>
@@ -4205,8 +6301,20 @@
       <c r="R84" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="85" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S84" t="s">
+        <v>696</v>
+      </c>
+      <c r="T84" t="s">
+        <v>770</v>
+      </c>
+      <c r="U84" t="s">
+        <v>853</v>
+      </c>
+      <c r="V84" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="85" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M85" t="s">
         <v>117</v>
       </c>
@@ -4225,8 +6333,20 @@
       <c r="R85" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="86" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S85" t="s">
+        <v>480</v>
+      </c>
+      <c r="T85" t="s">
+        <v>771</v>
+      </c>
+      <c r="U85" t="s">
+        <v>854</v>
+      </c>
+      <c r="V85" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="86" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M86" t="s">
         <v>118</v>
       </c>
@@ -4245,8 +6365,20 @@
       <c r="R86" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="87" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S86" t="s">
+        <v>697</v>
+      </c>
+      <c r="T86" t="s">
+        <v>746</v>
+      </c>
+      <c r="U86" t="s">
+        <v>855</v>
+      </c>
+      <c r="V86" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="87" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M87" t="s">
         <v>119</v>
       </c>
@@ -4265,8 +6397,20 @@
       <c r="R87" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="88" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S87" t="s">
+        <v>698</v>
+      </c>
+      <c r="T87" t="s">
+        <v>772</v>
+      </c>
+      <c r="U87" t="s">
+        <v>856</v>
+      </c>
+      <c r="V87" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="88" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M88" t="s">
         <v>120</v>
       </c>
@@ -4285,8 +6429,20 @@
       <c r="R88" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="89" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S88" t="s">
+        <v>699</v>
+      </c>
+      <c r="T88" t="s">
+        <v>773</v>
+      </c>
+      <c r="U88" t="s">
+        <v>857</v>
+      </c>
+      <c r="V88" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="89" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M89" t="s">
         <v>121</v>
       </c>
@@ -4305,8 +6461,20 @@
       <c r="R89" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="90" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S89" t="s">
+        <v>700</v>
+      </c>
+      <c r="T89" t="s">
+        <v>774</v>
+      </c>
+      <c r="U89" t="s">
+        <v>858</v>
+      </c>
+      <c r="V89" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="90" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M90" t="s">
         <v>122</v>
       </c>
@@ -4325,8 +6493,20 @@
       <c r="R90" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="91" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S90" t="s">
+        <v>701</v>
+      </c>
+      <c r="T90" t="s">
+        <v>775</v>
+      </c>
+      <c r="U90" t="s">
+        <v>859</v>
+      </c>
+      <c r="V90" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="91" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M91" t="s">
         <v>123</v>
       </c>
@@ -4345,8 +6525,20 @@
       <c r="R91" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="92" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S91" t="s">
+        <v>527</v>
+      </c>
+      <c r="T91" t="s">
+        <v>776</v>
+      </c>
+      <c r="U91" t="s">
+        <v>860</v>
+      </c>
+      <c r="V91" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="92" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M92" t="s">
         <v>124</v>
       </c>
@@ -4365,8 +6557,20 @@
       <c r="R92" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="93" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S92" t="s">
+        <v>702</v>
+      </c>
+      <c r="T92" t="s">
+        <v>144</v>
+      </c>
+      <c r="U92" t="s">
+        <v>861</v>
+      </c>
+      <c r="V92" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="93" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M93" t="s">
         <v>125</v>
       </c>
@@ -4382,8 +6586,20 @@
       <c r="R93" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="94" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S93" t="s">
+        <v>703</v>
+      </c>
+      <c r="T93" t="s">
+        <v>777</v>
+      </c>
+      <c r="U93" t="s">
+        <v>862</v>
+      </c>
+      <c r="V93" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="94" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M94" t="s">
         <v>126</v>
       </c>
@@ -4399,8 +6615,20 @@
       <c r="R94" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="95" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S94" t="s">
+        <v>704</v>
+      </c>
+      <c r="T94" t="s">
+        <v>778</v>
+      </c>
+      <c r="U94" t="s">
+        <v>863</v>
+      </c>
+      <c r="V94" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="95" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M95" t="s">
         <v>127</v>
       </c>
@@ -4413,8 +6641,20 @@
       <c r="R95" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="96" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S95" t="s">
+        <v>73</v>
+      </c>
+      <c r="T95" t="s">
+        <v>578</v>
+      </c>
+      <c r="U95" t="s">
+        <v>864</v>
+      </c>
+      <c r="V95" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="96" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M96" t="s">
         <v>128</v>
       </c>
@@ -4427,8 +6667,20 @@
       <c r="R96" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="97" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S96" t="s">
+        <v>705</v>
+      </c>
+      <c r="T96" t="s">
+        <v>779</v>
+      </c>
+      <c r="U96" t="s">
+        <v>865</v>
+      </c>
+      <c r="V96" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="97" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M97" t="s">
         <v>129</v>
       </c>
@@ -4441,8 +6693,20 @@
       <c r="R97" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="98" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S97" t="s">
+        <v>706</v>
+      </c>
+      <c r="T97" t="s">
+        <v>780</v>
+      </c>
+      <c r="U97" t="s">
+        <v>866</v>
+      </c>
+      <c r="V97" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="98" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M98" t="s">
         <v>130</v>
       </c>
@@ -4455,8 +6719,20 @@
       <c r="R98" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="99" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="S98" t="s">
+        <v>707</v>
+      </c>
+      <c r="T98" t="s">
+        <v>54</v>
+      </c>
+      <c r="U98" t="s">
+        <v>867</v>
+      </c>
+      <c r="V98" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="99" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M99" t="s">
         <v>131</v>
       </c>
@@ -4469,8 +6745,17 @@
       <c r="R99" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="100" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="T99" t="s">
+        <v>477</v>
+      </c>
+      <c r="U99" t="s">
+        <v>868</v>
+      </c>
+      <c r="V99" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="100" spans="13:22" x14ac:dyDescent="0.35">
       <c r="M100" t="s">
         <v>132</v>
       </c>
@@ -4483,8 +6768,17 @@
       <c r="R100" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="101" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="T100" t="s">
+        <v>781</v>
+      </c>
+      <c r="U100" t="s">
+        <v>869</v>
+      </c>
+      <c r="V100" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="101" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N101" t="s">
         <v>212</v>
       </c>
@@ -4494,8 +6788,14 @@
       <c r="R101" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="102" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U101" t="s">
+        <v>870</v>
+      </c>
+      <c r="V101" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="102" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N102" t="s">
         <v>213</v>
       </c>
@@ -4505,8 +6805,14 @@
       <c r="R102" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="103" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U102" t="s">
+        <v>871</v>
+      </c>
+      <c r="V102" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="103" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N103" t="s">
         <v>214</v>
       </c>
@@ -4516,8 +6822,14 @@
       <c r="R103" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="104" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U103" t="s">
+        <v>872</v>
+      </c>
+      <c r="V103" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="104" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N104" t="s">
         <v>215</v>
       </c>
@@ -4527,8 +6839,14 @@
       <c r="R104" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="105" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U104" t="s">
+        <v>873</v>
+      </c>
+      <c r="V104" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="105" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N105" t="s">
         <v>216</v>
       </c>
@@ -4538,8 +6856,14 @@
       <c r="R105" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="106" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U105" t="s">
+        <v>874</v>
+      </c>
+      <c r="V105" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="106" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N106" t="s">
         <v>111</v>
       </c>
@@ -4549,8 +6873,14 @@
       <c r="R106" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="107" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U106" t="s">
+        <v>524</v>
+      </c>
+      <c r="V106" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="107" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N107" t="s">
         <v>218</v>
       </c>
@@ -4560,8 +6890,14 @@
       <c r="R107" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="108" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U107" t="s">
+        <v>875</v>
+      </c>
+      <c r="V107" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="108" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N108" t="s">
         <v>217</v>
       </c>
@@ -4571,8 +6907,14 @@
       <c r="R108" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="109" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U108" t="s">
+        <v>668</v>
+      </c>
+      <c r="V108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N109" t="s">
         <v>219</v>
       </c>
@@ -4582,8 +6924,14 @@
       <c r="R109" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="110" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U109" t="s">
+        <v>876</v>
+      </c>
+      <c r="V109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N110" t="s">
         <v>220</v>
       </c>
@@ -4593,8 +6941,14 @@
       <c r="R110" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="111" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U110" t="s">
+        <v>877</v>
+      </c>
+      <c r="V110" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="111" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N111" t="s">
         <v>221</v>
       </c>
@@ -4604,8 +6958,14 @@
       <c r="R111" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="112" spans="13:18" x14ac:dyDescent="0.35">
+      <c r="U111" t="s">
+        <v>63</v>
+      </c>
+      <c r="V111" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="112" spans="13:22" x14ac:dyDescent="0.35">
       <c r="N112" t="s">
         <v>222</v>
       </c>
@@ -4615,8 +6975,14 @@
       <c r="R112" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="113" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="U112" t="s">
+        <v>878</v>
+      </c>
+      <c r="V112" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="113" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N113" t="s">
         <v>223</v>
       </c>
@@ -4626,8 +6992,14 @@
       <c r="R113" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="114" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="U113" t="s">
+        <v>424</v>
+      </c>
+      <c r="V113" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="114" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N114" t="s">
         <v>224</v>
       </c>
@@ -4637,8 +7009,14 @@
       <c r="R114" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="115" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="U114" t="s">
+        <v>879</v>
+      </c>
+      <c r="V114" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="115" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N115" t="s">
         <v>225</v>
       </c>
@@ -4648,8 +7026,14 @@
       <c r="R115" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="116" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="U115" t="s">
+        <v>880</v>
+      </c>
+      <c r="V115" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="116" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N116" t="s">
         <v>226</v>
       </c>
@@ -4659,36 +7043,182 @@
       <c r="R116" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="117" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="U116" t="s">
+        <v>881</v>
+      </c>
+      <c r="V116" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="14:22" x14ac:dyDescent="0.35">
       <c r="Q117" t="s">
         <v>532</v>
       </c>
       <c r="R117" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="118" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="U117" t="s">
+        <v>882</v>
+      </c>
+      <c r="V117" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="118" spans="14:22" x14ac:dyDescent="0.35">
       <c r="Q118" t="s">
         <v>533</v>
       </c>
       <c r="R118" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="119" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="U118" t="s">
+        <v>883</v>
+      </c>
+      <c r="V118" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="119" spans="14:22" x14ac:dyDescent="0.35">
       <c r="R119" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="120" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="U119" t="s">
+        <v>884</v>
+      </c>
+      <c r="V119" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="120" spans="14:22" x14ac:dyDescent="0.35">
       <c r="R120" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="121" spans="14:18" x14ac:dyDescent="0.35">
+      <c r="U120" t="s">
+        <v>885</v>
+      </c>
+      <c r="V120" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="121" spans="14:22" x14ac:dyDescent="0.35">
       <c r="R121" t="s">
         <v>634</v>
+      </c>
+      <c r="U121" t="s">
+        <v>886</v>
+      </c>
+      <c r="V121" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="122" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="U122" t="s">
+        <v>887</v>
+      </c>
+      <c r="V122" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="123" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="U123" t="s">
+        <v>888</v>
+      </c>
+      <c r="V123" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="124" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="U124" t="s">
+        <v>889</v>
+      </c>
+      <c r="V124" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="125" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="U125" t="s">
+        <v>890</v>
+      </c>
+      <c r="V125" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="126" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="U126" t="s">
+        <v>891</v>
+      </c>
+      <c r="V126" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="127" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="U127" t="s">
+        <v>711</v>
+      </c>
+      <c r="V127" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="128" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="U128" t="s">
+        <v>892</v>
+      </c>
+      <c r="V128" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="129" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U129" t="s">
+        <v>894</v>
+      </c>
+      <c r="V129" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="130" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U130" t="s">
+        <v>893</v>
+      </c>
+      <c r="V130" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="131" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U131" t="s">
+        <v>895</v>
+      </c>
+      <c r="V131" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="132" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U132" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="133" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U133" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="134" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U134" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="135" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U135" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="136" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U136" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="137" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U137" t="s">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/example_grammars/pokemon.xlsx
+++ b/example_grammars/pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miloc\Documents\MiloTextGen\example_grammars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8ED24-1FE4-47CA-9F56-06A3BE6911EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC303415-EC05-4EC6-BA75-D1270DFABD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1096">
   <si>
     <t>fairy</t>
   </si>
@@ -3033,6 +3033,297 @@
   </si>
   <si>
     <t>[suffix-gen5]</t>
+  </si>
+  <si>
+    <t>prefix-gen6</t>
+  </si>
+  <si>
+    <t>ches</t>
+  </si>
+  <si>
+    <t>fenne</t>
+  </si>
+  <si>
+    <t>braix</t>
+  </si>
+  <si>
+    <t>froak</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>gre</t>
+  </si>
+  <si>
+    <t>bunnel</t>
+  </si>
+  <si>
+    <t>diggers</t>
+  </si>
+  <si>
+    <t>fletch</t>
+  </si>
+  <si>
+    <t>talon</t>
+  </si>
+  <si>
+    <t>cscatter</t>
+  </si>
+  <si>
+    <t>spew</t>
+  </si>
+  <si>
+    <t>vivi</t>
+  </si>
+  <si>
+    <t>fla</t>
+  </si>
+  <si>
+    <t>flo</t>
+  </si>
+  <si>
+    <t>flor</t>
+  </si>
+  <si>
+    <t>ski</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>hon</t>
+  </si>
+  <si>
+    <t>dou</t>
+  </si>
+  <si>
+    <t>aegi</t>
+  </si>
+  <si>
+    <t>sprit</t>
+  </si>
+  <si>
+    <t>aroma</t>
+  </si>
+  <si>
+    <t>swirl</t>
+  </si>
+  <si>
+    <t>slur</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>mala</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>barbar</t>
+  </si>
+  <si>
+    <t>drag</t>
+  </si>
+  <si>
+    <t>claunch</t>
+  </si>
+  <si>
+    <t>claw</t>
+  </si>
+  <si>
+    <t>helio</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>aur</t>
+  </si>
+  <si>
+    <t>sylv</t>
+  </si>
+  <si>
+    <t>haw</t>
+  </si>
+  <si>
+    <t>ded</t>
+  </si>
+  <si>
+    <t>goo</t>
+  </si>
+  <si>
+    <t>slig</t>
+  </si>
+  <si>
+    <t>klef</t>
+  </si>
+  <si>
+    <t>tre</t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
+    <t>gour</t>
+  </si>
+  <si>
+    <t>berg</t>
+  </si>
+  <si>
+    <t>noi</t>
+  </si>
+  <si>
+    <t>xer</t>
+  </si>
+  <si>
+    <t>yvel</t>
+  </si>
+  <si>
+    <t>zy</t>
+  </si>
+  <si>
+    <t>hoo</t>
+  </si>
+  <si>
+    <t>volcan</t>
+  </si>
+  <si>
+    <t>suffix-gen6</t>
+  </si>
+  <si>
+    <t>adin</t>
+  </si>
+  <si>
+    <t>naught</t>
+  </si>
+  <si>
+    <t>kin</t>
+  </si>
+  <si>
+    <t>phox</t>
+  </si>
+  <si>
+    <t>adier</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>inder</t>
+  </si>
+  <si>
+    <t>flame</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>roar</t>
+  </si>
+  <si>
+    <t>bébé</t>
+  </si>
+  <si>
+    <t>ges</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>goro</t>
+  </si>
+  <si>
+    <t>frou</t>
+  </si>
+  <si>
+    <t>stic</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>tisse</t>
+  </si>
+  <si>
+    <t>kay</t>
+  </si>
+  <si>
+    <t>acle</t>
+  </si>
+  <si>
+    <t>alge</t>
+  </si>
+  <si>
+    <t>ptile</t>
+  </si>
+  <si>
+    <t>lisk</t>
+  </si>
+  <si>
+    <t>rantrum</t>
+  </si>
+  <si>
+    <t>aura</t>
+  </si>
+  <si>
+    <t>lucha</t>
+  </si>
+  <si>
+    <t>enne</t>
+  </si>
+  <si>
+    <t>bink</t>
+  </si>
+  <si>
+    <t>tump</t>
+  </si>
+  <si>
+    <t>venant</t>
+  </si>
+  <si>
+    <t>kaboo</t>
+  </si>
+  <si>
+    <t>geist</t>
+  </si>
+  <si>
+    <t>lugg</t>
+  </si>
+  <si>
+    <t>vern</t>
+  </si>
+  <si>
+    <t>neas</t>
+  </si>
+  <si>
+    <t>tal</t>
+  </si>
+  <si>
+    <t>cie</t>
+  </si>
+  <si>
+    <t>[prefix-gen6]</t>
+  </si>
+  <si>
+    <t>[suffix-gen6]</t>
   </si>
 </sst>
 </file>
@@ -3351,10 +3642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3378,9 +3669,11 @@
     <col min="20" max="20" width="18.90625" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
     <col min="22" max="22" width="10.6328125" customWidth="1"/>
+    <col min="23" max="23" width="15.1796875" customWidth="1"/>
+    <col min="24" max="24" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3447,8 +3740,14 @@
       <c r="V1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W1" t="s">
+        <v>999</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>227</v>
       </c>
@@ -3515,8 +3814,14 @@
       <c r="V2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="X2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -3583,8 +3888,14 @@
       <c r="V3" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W3" t="s">
+        <v>916</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>312</v>
       </c>
@@ -3639,8 +3950,14 @@
       <c r="V4" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
         <v>782</v>
       </c>
@@ -3689,8 +4006,14 @@
       <c r="V5" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G6" t="s">
         <v>997</v>
       </c>
@@ -3736,8 +4059,20 @@
       <c r="V6" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W6" t="s">
+        <v>469</v>
+      </c>
+      <c r="X6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1095</v>
+      </c>
       <c r="J7" t="s">
         <v>233</v>
       </c>
@@ -3777,8 +4112,14 @@
       <c r="V7" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J8" t="s">
         <v>234</v>
       </c>
@@ -3815,8 +4156,14 @@
       <c r="V8" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="X8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J9" t="s">
         <v>235</v>
       </c>
@@ -3853,8 +4200,14 @@
       <c r="V9" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J10" t="s">
         <v>231</v>
       </c>
@@ -3891,8 +4244,14 @@
       <c r="V10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J11" t="s">
         <v>37</v>
       </c>
@@ -3929,8 +4288,14 @@
       <c r="V11" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="X11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J12" t="s">
         <v>236</v>
       </c>
@@ -3967,8 +4332,14 @@
       <c r="V12" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="X12" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J13" t="s">
         <v>43</v>
       </c>
@@ -4002,8 +4373,14 @@
       <c r="V13" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J14" t="s">
         <v>38</v>
       </c>
@@ -4037,8 +4414,14 @@
       <c r="V14" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J15" t="s">
         <v>237</v>
       </c>
@@ -4072,8 +4455,14 @@
       <c r="V15" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J16" t="s">
         <v>238</v>
       </c>
@@ -4107,8 +4496,14 @@
       <c r="V16" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="17" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="17" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J17" t="s">
         <v>40</v>
       </c>
@@ -4142,8 +4537,14 @@
       <c r="V17" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="18" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W17" t="s">
+        <v>866</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="18" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>239</v>
       </c>
@@ -4177,8 +4578,14 @@
       <c r="V18" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="19" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W18" t="s">
+        <v>407</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="19" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J19" t="s">
         <v>44</v>
       </c>
@@ -4212,8 +4619,14 @@
       <c r="V19" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="20" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="20" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J20" t="s">
         <v>45</v>
       </c>
@@ -4247,8 +4660,14 @@
       <c r="V20" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="21" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="21" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
         <v>42</v>
       </c>
@@ -4282,8 +4701,14 @@
       <c r="V21" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="22" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="X21" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J22" t="s">
         <v>35</v>
       </c>
@@ -4317,8 +4742,14 @@
       <c r="V22" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="23" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="23" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J23" t="s">
         <v>240</v>
       </c>
@@ -4352,8 +4783,14 @@
       <c r="V23" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="24" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="X23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J24" t="s">
         <v>241</v>
       </c>
@@ -4387,8 +4824,14 @@
       <c r="V24" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="25" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W24" t="s">
+        <v>797</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="25" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J25" t="s">
         <v>242</v>
       </c>
@@ -4422,8 +4865,14 @@
       <c r="V25" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="26" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W25" t="s">
+        <v>280</v>
+      </c>
+      <c r="X25" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="10:24" x14ac:dyDescent="0.35">
       <c r="J26" t="s">
         <v>243</v>
       </c>
@@ -4457,8 +4906,14 @@
       <c r="V26" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="27" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="27" spans="10:24" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>60</v>
       </c>
@@ -4489,8 +4944,14 @@
       <c r="V27" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="28" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W27" t="s">
+        <v>70</v>
+      </c>
+      <c r="X27" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="28" spans="10:24" x14ac:dyDescent="0.35">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -4521,8 +4982,14 @@
       <c r="V28" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="29" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W28" t="s">
+        <v>1019</v>
+      </c>
+      <c r="X28" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="29" spans="10:24" x14ac:dyDescent="0.35">
       <c r="M29" t="s">
         <v>62</v>
       </c>
@@ -4553,8 +5020,14 @@
       <c r="V29" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="30" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W29" t="s">
+        <v>1020</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="30" spans="10:24" x14ac:dyDescent="0.35">
       <c r="M30" t="s">
         <v>63</v>
       </c>
@@ -4585,8 +5058,14 @@
       <c r="V30" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="31" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="31" spans="10:24" x14ac:dyDescent="0.35">
       <c r="M31" t="s">
         <v>64</v>
       </c>
@@ -4617,8 +5096,14 @@
       <c r="V31" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="32" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="W31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="32" spans="10:24" x14ac:dyDescent="0.35">
       <c r="M32" t="s">
         <v>65</v>
       </c>
@@ -4649,8 +5134,14 @@
       <c r="V32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="X32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M33" t="s">
         <v>66</v>
       </c>
@@ -4681,8 +5172,14 @@
       <c r="V33" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="34" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="X33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M34" t="s">
         <v>67</v>
       </c>
@@ -4713,8 +5210,14 @@
       <c r="V34" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="35" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="X34" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="35" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M35" t="s">
         <v>68</v>
       </c>
@@ -4745,8 +5248,14 @@
       <c r="V35" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="36" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W35" t="s">
+        <v>1026</v>
+      </c>
+      <c r="X35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M36" t="s">
         <v>69</v>
       </c>
@@ -4777,8 +5286,14 @@
       <c r="V36" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="37" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="X36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M37" t="s">
         <v>70</v>
       </c>
@@ -4809,8 +5324,14 @@
       <c r="V37" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="38" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="38" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M38" t="s">
         <v>71</v>
       </c>
@@ -4841,8 +5362,14 @@
       <c r="V38" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="39" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W38" t="s">
+        <v>1029</v>
+      </c>
+      <c r="X38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M39" t="s">
         <v>72</v>
       </c>
@@ -4873,8 +5400,14 @@
       <c r="V39" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="40" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W39" t="s">
+        <v>1030</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="40" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M40" t="s">
         <v>73</v>
       </c>
@@ -4905,8 +5438,14 @@
       <c r="V40" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="41" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W40" t="s">
+        <v>1031</v>
+      </c>
+      <c r="X40" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="41" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M41" t="s">
         <v>74</v>
       </c>
@@ -4937,8 +5476,14 @@
       <c r="V41" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="42" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W41" t="s">
+        <v>1032</v>
+      </c>
+      <c r="X41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M42" t="s">
         <v>75</v>
       </c>
@@ -4969,8 +5514,14 @@
       <c r="V42" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="43" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W42" t="s">
+        <v>1033</v>
+      </c>
+      <c r="X42" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="43" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M43" t="s">
         <v>51</v>
       </c>
@@ -5001,8 +5552,14 @@
       <c r="V43" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="44" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W43" t="s">
+        <v>411</v>
+      </c>
+      <c r="X43" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="44" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M44" t="s">
         <v>76</v>
       </c>
@@ -5033,8 +5590,14 @@
       <c r="V44" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="45" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W44" t="s">
+        <v>1034</v>
+      </c>
+      <c r="X44" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="45" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M45" t="s">
         <v>77</v>
       </c>
@@ -5065,8 +5628,14 @@
       <c r="V45" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="46" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W45" t="s">
+        <v>1035</v>
+      </c>
+      <c r="X45" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="46" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M46" t="s">
         <v>78</v>
       </c>
@@ -5097,8 +5666,14 @@
       <c r="V46" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="47" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W46" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X46" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="47" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M47" t="s">
         <v>79</v>
       </c>
@@ -5129,8 +5704,14 @@
       <c r="V47" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="48" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="X47" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="48" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M48" t="s">
         <v>80</v>
       </c>
@@ -5161,8 +5742,14 @@
       <c r="V48" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="49" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W48" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M49" t="s">
         <v>81</v>
       </c>
@@ -5193,8 +5780,14 @@
       <c r="V49" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="50" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W49" t="s">
+        <v>482</v>
+      </c>
+      <c r="X49" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="50" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M50" t="s">
         <v>82</v>
       </c>
@@ -5225,8 +5818,14 @@
       <c r="V50" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="51" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W50" t="s">
+        <v>1039</v>
+      </c>
+      <c r="X50" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="51" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M51" t="s">
         <v>83</v>
       </c>
@@ -5257,8 +5856,14 @@
       <c r="V51" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="52" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="X51" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="52" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M52" t="s">
         <v>84</v>
       </c>
@@ -5289,8 +5894,14 @@
       <c r="V52" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="53" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="X52" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="53" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M53" t="s">
         <v>85</v>
       </c>
@@ -5321,8 +5932,14 @@
       <c r="V53" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="54" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W53" t="s">
+        <v>332</v>
+      </c>
+      <c r="X53" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="54" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M54" t="s">
         <v>86</v>
       </c>
@@ -5353,8 +5970,14 @@
       <c r="V54" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="55" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W54" t="s">
+        <v>1042</v>
+      </c>
+      <c r="X54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M55" t="s">
         <v>87</v>
       </c>
@@ -5385,8 +6008,14 @@
       <c r="V55" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="56" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W55" t="s">
+        <v>1043</v>
+      </c>
+      <c r="X55" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="56" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M56" t="s">
         <v>88</v>
       </c>
@@ -5417,8 +6046,14 @@
       <c r="V56" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="57" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W56" t="s">
+        <v>1044</v>
+      </c>
+      <c r="X56" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="57" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M57" t="s">
         <v>89</v>
       </c>
@@ -5449,8 +6084,14 @@
       <c r="V57" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="58" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W57" t="s">
+        <v>1045</v>
+      </c>
+      <c r="X57" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="58" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M58" t="s">
         <v>90</v>
       </c>
@@ -5481,8 +6122,14 @@
       <c r="V58" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="59" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W58" t="s">
+        <v>350</v>
+      </c>
+      <c r="X58" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="59" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M59" t="s">
         <v>91</v>
       </c>
@@ -5513,8 +6160,14 @@
       <c r="V59" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="60" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W59" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X59" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="60" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M60" t="s">
         <v>92</v>
       </c>
@@ -5545,8 +6198,14 @@
       <c r="V60" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="61" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M61" t="s">
         <v>93</v>
       </c>
@@ -5577,8 +6236,14 @@
       <c r="V61" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="62" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W61" t="s">
+        <v>1048</v>
+      </c>
+      <c r="X61" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="62" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M62" t="s">
         <v>94</v>
       </c>
@@ -5609,8 +6274,14 @@
       <c r="V62" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="63" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W62" t="s">
+        <v>1049</v>
+      </c>
+      <c r="X62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M63" t="s">
         <v>95</v>
       </c>
@@ -5641,8 +6312,14 @@
       <c r="V63" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="64" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W63" t="s">
+        <v>700</v>
+      </c>
+      <c r="X63" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="64" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M64" t="s">
         <v>96</v>
       </c>
@@ -5673,8 +6350,14 @@
       <c r="V64" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="65" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W64" t="s">
+        <v>1050</v>
+      </c>
+      <c r="X64" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="65" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M65" t="s">
         <v>97</v>
       </c>
@@ -5705,8 +6388,14 @@
       <c r="V65" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="66" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="W65" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X65" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="66" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M66" t="s">
         <v>98</v>
       </c>
@@ -5737,8 +6426,11 @@
       <c r="V66" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="67" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="X66" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M67" t="s">
         <v>99</v>
       </c>
@@ -5769,8 +6461,11 @@
       <c r="V67" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="68" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="X67" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="68" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M68" t="s">
         <v>100</v>
       </c>
@@ -5801,8 +6496,11 @@
       <c r="V68" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="69" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="X68" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="69" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M69" t="s">
         <v>101</v>
       </c>
@@ -5833,8 +6531,11 @@
       <c r="V69" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="70" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="X69" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="70" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M70" t="s">
         <v>102</v>
       </c>
@@ -5866,7 +6567,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="71" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M71" t="s">
         <v>103</v>
       </c>
@@ -5898,7 +6599,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="72" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M72" t="s">
         <v>104</v>
       </c>
@@ -5930,7 +6631,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M73" t="s">
         <v>105</v>
       </c>
@@ -5962,7 +6663,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M74" t="s">
         <v>106</v>
       </c>
@@ -5994,7 +6695,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="75" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M75" t="s">
         <v>107</v>
       </c>
@@ -6026,7 +6727,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M76" t="s">
         <v>108</v>
       </c>
@@ -6058,7 +6759,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="77" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M77" t="s">
         <v>109</v>
       </c>
@@ -6090,7 +6791,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="78" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M78" t="s">
         <v>110</v>
       </c>
@@ -6122,7 +6823,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="79" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M79" t="s">
         <v>111</v>
       </c>
@@ -6154,7 +6855,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="80" spans="13:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="13:24" x14ac:dyDescent="0.35">
       <c r="M80" t="s">
         <v>112</v>
       </c>

--- a/example_grammars/pokemon.xlsx
+++ b/example_grammars/pokemon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miloc\Documents\MiloTextGen\example_grammars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milo\Documents\MiloTextGen\example_grammars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC303415-EC05-4EC6-BA75-D1270DFABD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C222169-033F-41DB-98D9-84FA5E0EC0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="0" windowWidth="9150" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1543">
   <si>
     <t>fairy</t>
   </si>
@@ -719,9 +719,6 @@
     <t>two</t>
   </si>
   <si>
-    <t>[prefix][suffix]</t>
-  </si>
-  <si>
     <t>[real-prefix]</t>
   </si>
   <si>
@@ -824,9 +821,6 @@
     <t>[silly-suffix]</t>
   </si>
   <si>
-    <t>[prefix][vowel][consonant][suffix]</t>
-  </si>
-  <si>
     <t>[prefix-gen1]</t>
   </si>
   <si>
@@ -974,9 +968,6 @@
     <t>dun</t>
   </si>
   <si>
-    <t>[prefix][prefix][suffix]</t>
-  </si>
-  <si>
     <t>gli</t>
   </si>
   <si>
@@ -3324,6 +3315,1356 @@
   </si>
   <si>
     <t>[suffix-gen6]</t>
+  </si>
+  <si>
+    <t>prefix-gen7</t>
+  </si>
+  <si>
+    <t>suffix-gen7</t>
+  </si>
+  <si>
+    <t>dar</t>
+  </si>
+  <si>
+    <t>decidu</t>
+  </si>
+  <si>
+    <t>torra</t>
+  </si>
+  <si>
+    <t>incine</t>
+  </si>
+  <si>
+    <t>popp</t>
+  </si>
+  <si>
+    <t>bri</t>
+  </si>
+  <si>
+    <t>pri</t>
+  </si>
+  <si>
+    <t>piki</t>
+  </si>
+  <si>
+    <t>trum</t>
+  </si>
+  <si>
+    <t>tou</t>
+  </si>
+  <si>
+    <t>yun</t>
+  </si>
+  <si>
+    <t>gum</t>
+  </si>
+  <si>
+    <t>grub</t>
+  </si>
+  <si>
+    <t>charja</t>
+  </si>
+  <si>
+    <t>vika</t>
+  </si>
+  <si>
+    <t>crab</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>cutie</t>
+  </si>
+  <si>
+    <t>ribom</t>
+  </si>
+  <si>
+    <t>lycan</t>
+  </si>
+  <si>
+    <t>wishi</t>
+  </si>
+  <si>
+    <t>marea</t>
+  </si>
+  <si>
+    <t>toxa</t>
+  </si>
+  <si>
+    <t>araqua</t>
+  </si>
+  <si>
+    <t>lur</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>shii</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>boun</t>
+  </si>
+  <si>
+    <t>stee</t>
+  </si>
+  <si>
+    <t>tsar</t>
+  </si>
+  <si>
+    <t>oran</t>
+  </si>
+  <si>
+    <t>wim</t>
+  </si>
+  <si>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>pyuku</t>
+  </si>
+  <si>
+    <t>palo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type: </t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>turt</t>
+  </si>
+  <si>
+    <t>mimi</t>
+  </si>
+  <si>
+    <t>brux</t>
+  </si>
+  <si>
+    <t>dram</t>
+  </si>
+  <si>
+    <t>dhel</t>
+  </si>
+  <si>
+    <t>jang</t>
+  </si>
+  <si>
+    <t>haka</t>
+  </si>
+  <si>
+    <t>kom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapu </t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>solga</t>
+  </si>
+  <si>
+    <t>lun</t>
+  </si>
+  <si>
+    <t>nihi</t>
+  </si>
+  <si>
+    <t>phero</t>
+  </si>
+  <si>
+    <t>xurki</t>
+  </si>
+  <si>
+    <t>celest</t>
+  </si>
+  <si>
+    <t>kar</t>
+  </si>
+  <si>
+    <t>guzz</t>
+  </si>
+  <si>
+    <t>necroz</t>
+  </si>
+  <si>
+    <t>poi</t>
+  </si>
+  <si>
+    <t>nagan</t>
+  </si>
+  <si>
+    <t>staka</t>
+  </si>
+  <si>
+    <t>blaceph</t>
+  </si>
+  <si>
+    <t>zera</t>
+  </si>
+  <si>
+    <t>mel</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>trix</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>lio</t>
+  </si>
+  <si>
+    <t>onne</t>
+  </si>
+  <si>
+    <t>marina</t>
+  </si>
+  <si>
+    <t>pek</t>
+  </si>
+  <si>
+    <t>beak</t>
+  </si>
+  <si>
+    <t>cannon</t>
+  </si>
+  <si>
+    <t>goos</t>
+  </si>
+  <si>
+    <t>shoos</t>
+  </si>
+  <si>
+    <t>rawler</t>
+  </si>
+  <si>
+    <t>ominable</t>
+  </si>
+  <si>
+    <t>corio</t>
+  </si>
+  <si>
+    <t>roc</t>
+  </si>
+  <si>
+    <t>washi</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>pex</t>
+  </si>
+  <si>
+    <t>bray</t>
+  </si>
+  <si>
+    <t>sdale</t>
+  </si>
+  <si>
+    <t>pider</t>
+  </si>
+  <si>
+    <t>nid</t>
+  </si>
+  <si>
+    <t>fom</t>
+  </si>
+  <si>
+    <t>antis</t>
+  </si>
+  <si>
+    <t>lull</t>
+  </si>
+  <si>
+    <t>notic</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>andit</t>
+  </si>
+  <si>
+    <t>azzle</t>
+  </si>
+  <si>
+    <t>ful</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>nee</t>
+  </si>
+  <si>
+    <t>eena</t>
+  </si>
+  <si>
+    <t>fey</t>
+  </si>
+  <si>
+    <t>guru</t>
+  </si>
+  <si>
+    <t>imian</t>
+  </si>
+  <si>
+    <t>isopod</t>
+  </si>
+  <si>
+    <t>gast</t>
+  </si>
+  <si>
+    <t>ssand</t>
+  </si>
+  <si>
+    <t>muku</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Null</t>
+  </si>
+  <si>
+    <t>vally</t>
+  </si>
+  <si>
+    <t>ior</t>
+  </si>
+  <si>
+    <t>onator</t>
+  </si>
+  <si>
+    <t>demaru</t>
+  </si>
+  <si>
+    <t>mo-o</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Koko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lele</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fini</t>
+  </si>
+  <si>
+    <t>mog</t>
+  </si>
+  <si>
+    <t>moem</t>
+  </si>
+  <si>
+    <t>ala</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>wole</t>
+  </si>
+  <si>
+    <t>mosa</t>
+  </si>
+  <si>
+    <t>eela</t>
+  </si>
+  <si>
+    <t>tana</t>
+  </si>
+  <si>
+    <t>gearna</t>
+  </si>
+  <si>
+    <t>adow</t>
+  </si>
+  <si>
+    <t>adel</t>
+  </si>
+  <si>
+    <t>taka</t>
+  </si>
+  <si>
+    <t>alon</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>prefix-gen8</t>
+  </si>
+  <si>
+    <t>suffix-gen8</t>
+  </si>
+  <si>
+    <t>groo</t>
+  </si>
+  <si>
+    <t>rilla</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>cinder</t>
+  </si>
+  <si>
+    <t>sob</t>
+  </si>
+  <si>
+    <t>drizz</t>
+  </si>
+  <si>
+    <t>intel</t>
+  </si>
+  <si>
+    <t>skwo</t>
+  </si>
+  <si>
+    <t>greed</t>
+  </si>
+  <si>
+    <t>rooki</t>
+  </si>
+  <si>
+    <t>corvi</t>
+  </si>
+  <si>
+    <t>blip</t>
+  </si>
+  <si>
+    <t>dottl</t>
+  </si>
+  <si>
+    <t>nick</t>
+  </si>
+  <si>
+    <t>thie</t>
+  </si>
+  <si>
+    <t>gossi</t>
+  </si>
+  <si>
+    <t>elde</t>
+  </si>
+  <si>
+    <t>dub</t>
+  </si>
+  <si>
+    <t>chew</t>
+  </si>
+  <si>
+    <t>dred</t>
+  </si>
+  <si>
+    <t>yam</t>
+  </si>
+  <si>
+    <t>roly</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>flap</t>
+  </si>
+  <si>
+    <t>sili</t>
+  </si>
+  <si>
+    <t>sanda</t>
+  </si>
+  <si>
+    <t>cram</t>
+  </si>
+  <si>
+    <t>arro</t>
+  </si>
+  <si>
+    <t>barra</t>
+  </si>
+  <si>
+    <t>tox</t>
+  </si>
+  <si>
+    <t>sizzli</t>
+  </si>
+  <si>
+    <t>centi</t>
+  </si>
+  <si>
+    <t>clobbo</t>
+  </si>
+  <si>
+    <t>grapp</t>
+  </si>
+  <si>
+    <t>sinis</t>
+  </si>
+  <si>
+    <t>poltea</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>impi</t>
+  </si>
+  <si>
+    <t>grimm</t>
+  </si>
+  <si>
+    <t>obsta</t>
+  </si>
+  <si>
+    <t>perr</t>
+  </si>
+  <si>
+    <t>cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. </t>
+  </si>
+  <si>
+    <t>rune</t>
+  </si>
+  <si>
+    <t>alcre</t>
+  </si>
+  <si>
+    <t>ston</t>
+  </si>
+  <si>
+    <t>eis</t>
+  </si>
+  <si>
+    <t>indee</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>draco</t>
+  </si>
+  <si>
+    <t>arcto</t>
+  </si>
+  <si>
+    <t>duralu</t>
+  </si>
+  <si>
+    <t>dree</t>
+  </si>
+  <si>
+    <t>drak</t>
+  </si>
+  <si>
+    <t>draga</t>
+  </si>
+  <si>
+    <t>za</t>
+  </si>
+  <si>
+    <t>zama</t>
+  </si>
+  <si>
+    <t>eterna</t>
+  </si>
+  <si>
+    <t>kub</t>
+  </si>
+  <si>
+    <t>urshi</t>
+  </si>
+  <si>
+    <t>glas</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>caly</t>
+  </si>
+  <si>
+    <t>wyr</t>
+  </si>
+  <si>
+    <t>klea</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>enamor</t>
+  </si>
+  <si>
+    <t>thwa</t>
+  </si>
+  <si>
+    <t>boom</t>
+  </si>
+  <si>
+    <t>bunny</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>vet</t>
+  </si>
+  <si>
+    <t>ent</t>
+  </si>
+  <si>
+    <t>dee</t>
+  </si>
+  <si>
+    <t>squire</t>
+  </si>
+  <si>
+    <t>knight</t>
+  </si>
+  <si>
+    <t>beetle</t>
+  </si>
+  <si>
+    <t>fleur</t>
+  </si>
+  <si>
+    <t>goss</t>
+  </si>
+  <si>
+    <t>loo</t>
+  </si>
+  <si>
+    <t>wool</t>
+  </si>
+  <si>
+    <t>tund</t>
+  </si>
+  <si>
+    <t>coly</t>
+  </si>
+  <si>
+    <t>kol</t>
+  </si>
+  <si>
+    <t>ossal</t>
+  </si>
+  <si>
+    <t>tun</t>
+  </si>
+  <si>
+    <t>cobra</t>
+  </si>
+  <si>
+    <t>conda</t>
+  </si>
+  <si>
+    <t>orant</t>
+  </si>
+  <si>
+    <t>kuda</t>
+  </si>
+  <si>
+    <t>skewda</t>
+  </si>
+  <si>
+    <t>tricity</t>
+  </si>
+  <si>
+    <t>skorch</t>
+  </si>
+  <si>
+    <t>pus</t>
+  </si>
+  <si>
+    <t>loct</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>enna</t>
+  </si>
+  <si>
+    <t>erene</t>
+  </si>
+  <si>
+    <t>dimp</t>
+  </si>
+  <si>
+    <t>grem</t>
+  </si>
+  <si>
+    <t>snarl</t>
+  </si>
+  <si>
+    <t>goon</t>
+  </si>
+  <si>
+    <t>serker</t>
+  </si>
+  <si>
+    <t>sola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rime</t>
+  </si>
+  <si>
+    <t>rigus</t>
+  </si>
+  <si>
+    <t>cery</t>
+  </si>
+  <si>
+    <t>cremie</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>curchin</t>
+  </si>
+  <si>
+    <t>journer</t>
+  </si>
+  <si>
+    <t>cue</t>
+  </si>
+  <si>
+    <t>peko</t>
+  </si>
+  <si>
+    <t>fant</t>
+  </si>
+  <si>
+    <t>ajah</t>
+  </si>
+  <si>
+    <t>zolt</t>
+  </si>
+  <si>
+    <t>vish</t>
+  </si>
+  <si>
+    <t>pult</t>
+  </si>
+  <si>
+    <t>loak</t>
+  </si>
+  <si>
+    <t>cian</t>
+  </si>
+  <si>
+    <t>zenta</t>
+  </si>
+  <si>
+    <t>tus</t>
+  </si>
+  <si>
+    <t>fu</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>eleki</t>
+  </si>
+  <si>
+    <t>drago</t>
+  </si>
+  <si>
+    <t>trier</t>
+  </si>
+  <si>
+    <t>rex</t>
+  </si>
+  <si>
+    <t>vor</t>
+  </si>
+  <si>
+    <t>legion</t>
+  </si>
+  <si>
+    <t>[prefix-gen7]</t>
+  </si>
+  <si>
+    <t>[prefix-gen8]</t>
+  </si>
+  <si>
+    <t>[suffix-gen7]</t>
+  </si>
+  <si>
+    <t>[suffix-gen8]</t>
+  </si>
+  <si>
+    <t>[prefix.cap][suffix]</t>
+  </si>
+  <si>
+    <t>[prefix.cap][vowel][consonant][suffix]</t>
+  </si>
+  <si>
+    <t>[prefix.cap][prefix][suffix]</t>
+  </si>
+  <si>
+    <t>suffix-gen9</t>
+  </si>
+  <si>
+    <t>prefix-gen9</t>
+  </si>
+  <si>
+    <t>spriga</t>
+  </si>
+  <si>
+    <t>fue</t>
+  </si>
+  <si>
+    <t>croc</t>
+  </si>
+  <si>
+    <t>skele</t>
+  </si>
+  <si>
+    <t>quax</t>
+  </si>
+  <si>
+    <t>oinko</t>
+  </si>
+  <si>
+    <t>taro</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>nym</t>
+  </si>
+  <si>
+    <t>lok</t>
+  </si>
+  <si>
+    <t>paw</t>
+  </si>
+  <si>
+    <t>tande</t>
+  </si>
+  <si>
+    <t>maus</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>dachs</t>
+  </si>
+  <si>
+    <t>smo</t>
+  </si>
+  <si>
+    <t>arbo</t>
+  </si>
+  <si>
+    <t>squawk</t>
+  </si>
+  <si>
+    <t>nacl</t>
+  </si>
+  <si>
+    <t>garga</t>
+  </si>
+  <si>
+    <t>arma</t>
+  </si>
+  <si>
+    <t>ceru</t>
+  </si>
+  <si>
+    <t>belli</t>
+  </si>
+  <si>
+    <t>watt</t>
+  </si>
+  <si>
+    <t>kilowatt</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>mabos</t>
+  </si>
+  <si>
+    <t>shroo</t>
+  </si>
+  <si>
+    <t>graf</t>
+  </si>
+  <si>
+    <t>bramble</t>
+  </si>
+  <si>
+    <t>toeds</t>
+  </si>
+  <si>
+    <t>capsa</t>
+  </si>
+  <si>
+    <t>sco</t>
+  </si>
+  <si>
+    <t>rell</t>
+  </si>
+  <si>
+    <t>rab</t>
+  </si>
+  <si>
+    <t>flit</t>
+  </si>
+  <si>
+    <t>tinka</t>
+  </si>
+  <si>
+    <t>wig</t>
+  </si>
+  <si>
+    <t>wug</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>fini</t>
+  </si>
+  <si>
+    <t>pala</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>revav</t>
+  </si>
+  <si>
+    <t>cycli</t>
+  </si>
+  <si>
+    <t>orth</t>
+  </si>
+  <si>
+    <t>glim</t>
+  </si>
+  <si>
+    <t>grea</t>
+  </si>
+  <si>
+    <t>cet</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>tatsu</t>
+  </si>
+  <si>
+    <t>annihil</t>
+  </si>
+  <si>
+    <t>clod</t>
+  </si>
+  <si>
+    <t>fari</t>
+  </si>
+  <si>
+    <t>dudun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flutter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slither </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron </t>
+  </si>
+  <si>
+    <t>frigi</t>
+  </si>
+  <si>
+    <t>arcti</t>
+  </si>
+  <si>
+    <t>bax</t>
+  </si>
+  <si>
+    <t>gimmi</t>
+  </si>
+  <si>
+    <t>ghold</t>
+  </si>
+  <si>
+    <t>wo-</t>
+  </si>
+  <si>
+    <t>chien-</t>
+  </si>
+  <si>
+    <t>ting-</t>
+  </si>
+  <si>
+    <t>chi-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roaring </t>
+  </si>
+  <si>
+    <t>kor</t>
+  </si>
+  <si>
+    <t>mir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walking </t>
+  </si>
+  <si>
+    <t>dipp</t>
+  </si>
+  <si>
+    <t>poltcha</t>
+  </si>
+  <si>
+    <t>sinist</t>
+  </si>
+  <si>
+    <t>oki</t>
+  </si>
+  <si>
+    <t>munki</t>
+  </si>
+  <si>
+    <t>fezandi</t>
+  </si>
+  <si>
+    <t>oger</t>
+  </si>
+  <si>
+    <t>archa</t>
+  </si>
+  <si>
+    <t>hydra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gouging </t>
+  </si>
+  <si>
+    <t xml:space="preserve">raging </t>
+  </si>
+  <si>
+    <t>tera</t>
+  </si>
+  <si>
+    <t>pecha</t>
+  </si>
+  <si>
+    <t>tito</t>
+  </si>
+  <si>
+    <t>gato</t>
+  </si>
+  <si>
+    <t>scarada</t>
+  </si>
+  <si>
+    <t>coco</t>
+  </si>
+  <si>
+    <t>alor</t>
+  </si>
+  <si>
+    <t>dirge</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>quaval</t>
+  </si>
+  <si>
+    <t>chonk</t>
+  </si>
+  <si>
+    <t>logne</t>
+  </si>
+  <si>
+    <t>untula</t>
+  </si>
+  <si>
+    <t>dops</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>liv</t>
+  </si>
+  <si>
+    <t>liva</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>cadet</t>
+  </si>
+  <si>
+    <t>rouge</t>
+  </si>
+  <si>
+    <t>ledge</t>
+  </si>
+  <si>
+    <t>bulb</t>
+  </si>
+  <si>
+    <t>bolt</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t>chiff</t>
+  </si>
+  <si>
+    <t>stiff</t>
+  </si>
+  <si>
+    <t>aiai</t>
+  </si>
+  <si>
+    <t>ghast</t>
+  </si>
+  <si>
+    <t>villain</t>
+  </si>
+  <si>
+    <t>sca</t>
+  </si>
+  <si>
+    <t>artha</t>
+  </si>
+  <si>
+    <t>tink</t>
+  </si>
+  <si>
+    <t>irdier</t>
+  </si>
+  <si>
+    <t>zen</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>zar</t>
+  </si>
+  <si>
+    <t>mora</t>
+  </si>
+  <si>
+    <t>vard</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>migo</t>
+  </si>
+  <si>
+    <t>oddle</t>
+  </si>
+  <si>
+    <t>luza</t>
+  </si>
+  <si>
+    <t>dozo</t>
+  </si>
+  <si>
+    <t>giri</t>
+  </si>
+  <si>
+    <t>giraf</t>
+  </si>
+  <si>
+    <t>dunsparce</t>
+  </si>
+  <si>
+    <t>ambit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bonnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Treads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jugulis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thorns</t>
+  </si>
+  <si>
+    <t>calibur</t>
+  </si>
+  <si>
+    <t>ghoul</t>
+  </si>
+  <si>
+    <t>dengo</t>
+  </si>
+  <si>
+    <t>-Chien</t>
+  </si>
+  <si>
+    <t>-Pao</t>
+  </si>
+  <si>
+    <t>-Lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leaves</t>
+  </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
+    <t>dogi</t>
+  </si>
+  <si>
+    <t>dori</t>
+  </si>
+  <si>
+    <t>piti</t>
+  </si>
+  <si>
+    <t>pon</t>
+  </si>
+  <si>
+    <t>ludon</t>
+  </si>
+  <si>
+    <t>pple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boulder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crown</t>
+  </si>
+  <si>
+    <t>pagos</t>
+  </si>
+  <si>
+    <t>[prefix-gen9]</t>
+  </si>
+  <si>
+    <t>[suffix-gen9]</t>
   </si>
 </sst>
 </file>
@@ -3642,10 +4983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X137"/>
+  <dimension ref="A1:AD137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3671,9 +5012,15 @@
     <col min="22" max="22" width="10.6328125" customWidth="1"/>
     <col min="23" max="23" width="15.1796875" customWidth="1"/>
     <col min="24" max="24" width="13.54296875" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" customWidth="1"/>
+    <col min="27" max="27" width="13.08984375" customWidth="1"/>
+    <col min="28" max="28" width="10.6328125" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" customWidth="1"/>
+    <col min="30" max="30" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3702,78 +5049,96 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s">
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="R1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="S1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="T1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="U1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="V1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="W1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="X1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1049</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>1365</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
@@ -3782,7 +5147,7 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -3791,63 +5156,81 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="R2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="S2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="T2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="U2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="V2" t="s">
         <v>223</v>
       </c>
       <c r="W2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="X2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>1366</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
@@ -3856,7 +5239,7 @@
         <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
@@ -3865,54 +5248,72 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="R3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="S3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="T3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="U3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="V3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="W3" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="X3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1050</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>1367</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K4" t="s">
         <v>39</v>
@@ -3927,54 +5328,72 @@
         <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="R4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="S4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="T4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="U4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="V4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="W4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="X4" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1051</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K5" t="s">
         <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M5" t="s">
         <v>8</v>
@@ -3983,51 +5402,69 @@
         <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="R5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="S5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="T5" t="s">
         <v>14</v>
       </c>
       <c r="U5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="V5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="W5" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="X5" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1052</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="G6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="H6" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="J6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
@@ -4036,51 +5473,69 @@
         <v>133</v>
       </c>
       <c r="O6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="R6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="S6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="T6" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="U6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="V6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="W6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="X6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="H7" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="J7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
@@ -4089,19 +5544,19 @@
         <v>134</v>
       </c>
       <c r="O7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="R7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="S7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="T7" t="s">
         <v>165</v>
@@ -4110,21 +5565,45 @@
         <v>178</v>
       </c>
       <c r="V7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="W7" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1053</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>744</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1363</v>
+      </c>
       <c r="J8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
@@ -4133,42 +5612,66 @@
         <v>135</v>
       </c>
       <c r="O8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="R8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="S8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="T8" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="U8" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="V8" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="W8" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="X8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+        <v>769</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1364</v>
+      </c>
       <c r="J9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M9" t="s">
         <v>21</v>
@@ -4177,42 +5680,66 @@
         <v>136</v>
       </c>
       <c r="O9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="S9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="T9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="U9" t="s">
         <v>90</v>
       </c>
       <c r="V9" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="W9" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="X9" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1054</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1542</v>
+      </c>
       <c r="J10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -4221,42 +5748,60 @@
         <v>137</v>
       </c>
       <c r="O10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="R10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="S10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="T10" t="s">
         <v>214</v>
       </c>
       <c r="U10" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="V10" t="s">
         <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="X10" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1055</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J11" t="s">
         <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -4265,42 +5810,60 @@
         <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S11" t="s">
         <v>111</v>
       </c>
       <c r="T11" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="U11" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="V11" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="W11" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="X11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M12" t="s">
         <v>17</v>
@@ -4309,37 +5872,55 @@
         <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q12" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="R12" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="S12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="T12" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="U12" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="V12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="W12" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="X12" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J13" t="s">
         <v>43</v>
       </c>
@@ -4350,37 +5931,55 @@
         <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="R13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="S13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="T13" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="U13" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="V13" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="W13" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="X13" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1056</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J14" t="s">
         <v>38</v>
       </c>
@@ -4391,39 +5990,57 @@
         <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="R14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="S14" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="T14" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="U14" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="V14" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="W14" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="X14" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1057</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M15" t="s">
         <v>25</v>
@@ -4432,39 +6049,57 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="R15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="S15" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="T15" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="U15" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="V15" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="W15" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="X15" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1058</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M16" t="s">
         <v>2</v>
@@ -4473,37 +6108,55 @@
         <v>27</v>
       </c>
       <c r="O16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="R16" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="S16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="T16" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="U16" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="V16" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="W16" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="X16" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="17" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1059</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J17" t="s">
         <v>40</v>
       </c>
@@ -4514,39 +6167,57 @@
         <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P17" t="s">
         <v>212</v>
       </c>
       <c r="Q17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="R17" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S17" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="T17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="U17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="V17" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="W17" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="X17" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="18" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1060</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>739</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="18" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M18" t="s">
         <v>31</v>
@@ -4555,37 +6226,55 @@
         <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P18" t="s">
         <v>153</v>
       </c>
       <c r="Q18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="R18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="S18" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="T18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="U18" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="V18" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="W18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="X18" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="19" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1061</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="19" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J19" t="s">
         <v>44</v>
       </c>
@@ -4596,37 +6285,55 @@
         <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="R19" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="S19" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="T19" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="U19" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="V19" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="W19" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="X19" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="20" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1062</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="20" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J20" t="s">
         <v>45</v>
       </c>
@@ -4637,37 +6344,55 @@
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q20" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="R20" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="S20" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="T20" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="U20" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="V20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="W20" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="X20" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="21" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1063</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1111</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="21" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
         <v>42</v>
       </c>
@@ -4678,37 +6403,55 @@
         <v>52</v>
       </c>
       <c r="O21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
       </c>
       <c r="Q21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="R21" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="S21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="T21" t="s">
         <v>90</v>
       </c>
       <c r="U21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V21" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="W21" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="X21" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="22" spans="10:24" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="22" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J22" t="s">
         <v>35</v>
       </c>
@@ -4722,36 +6465,54 @@
         <v>57</v>
       </c>
       <c r="P22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="R22" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="S22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="T22" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="U22" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="V22" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="W22" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="X22" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="23" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1064</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>803</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="23" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s">
         <v>56</v>
@@ -4760,39 +6521,57 @@
         <v>142</v>
       </c>
       <c r="O23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q23" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="R23" t="s">
         <v>71</v>
       </c>
       <c r="S23" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="T23" t="s">
         <v>212</v>
       </c>
       <c r="U23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V23" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="W23" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="X23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="10:24" x14ac:dyDescent="0.35">
+      <c r="Y23" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s">
         <v>57</v>
@@ -4801,16 +6580,16 @@
         <v>143</v>
       </c>
       <c r="O24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="R24" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S24" t="s">
         <v>158</v>
@@ -4819,21 +6598,39 @@
         <v>200</v>
       </c>
       <c r="U24" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="V24" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="W24" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="X24" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="25" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1065</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1114</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="25" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s">
         <v>58</v>
@@ -4842,39 +6639,57 @@
         <v>144</v>
       </c>
       <c r="O25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="R25" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="S25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="T25" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="U25" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="V25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X25" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="26" spans="10:24" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="26" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s">
         <v>59</v>
@@ -4883,37 +6698,55 @@
         <v>145</v>
       </c>
       <c r="O26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q26" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="R26" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="S26" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="T26" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="U26" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="V26" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="W26" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="X26" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="27" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1066</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="27" spans="10:30" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>60</v>
       </c>
@@ -4924,34 +6757,52 @@
         <v>208</v>
       </c>
       <c r="P27" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q27" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="R27" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="S27" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="T27" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="U27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="V27" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="W27" t="s">
         <v>70</v>
       </c>
       <c r="X27" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="28" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>801</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="10:30" x14ac:dyDescent="0.35">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -4959,37 +6810,55 @@
         <v>98</v>
       </c>
       <c r="O28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P28" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q28" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="R28" t="s">
         <v>154</v>
       </c>
       <c r="S28" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="T28" t="s">
         <v>23</v>
       </c>
       <c r="U28" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="V28" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="W28" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="X28" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="29" spans="10:24" x14ac:dyDescent="0.35">
+        <v>793</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="29" spans="10:30" x14ac:dyDescent="0.35">
       <c r="M29" t="s">
         <v>62</v>
       </c>
@@ -5000,34 +6869,52 @@
         <v>78</v>
       </c>
       <c r="P29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q29" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="R29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="S29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="T29" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="U29" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="V29" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="W29" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="X29" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="30" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1068</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="30" spans="10:30" x14ac:dyDescent="0.35">
       <c r="M30" t="s">
         <v>63</v>
       </c>
@@ -5038,34 +6925,52 @@
         <v>208</v>
       </c>
       <c r="P30" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q30" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="R30" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="S30" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="T30" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="U30" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="V30" t="s">
         <v>153</v>
       </c>
       <c r="W30" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="X30" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="31" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1069</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="31" spans="10:30" x14ac:dyDescent="0.35">
       <c r="M31" t="s">
         <v>64</v>
       </c>
@@ -5073,13 +6978,13 @@
         <v>148</v>
       </c>
       <c r="O31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q31" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="R31" t="s">
         <v>98</v>
@@ -5088,22 +6993,40 @@
         <v>92</v>
       </c>
       <c r="T31" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="U31" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="V31" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="W31" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="X31" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="32" spans="10:24" x14ac:dyDescent="0.35">
+        <v>1070</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="32" spans="10:30" x14ac:dyDescent="0.35">
       <c r="M32" t="s">
         <v>65</v>
       </c>
@@ -5111,37 +7034,55 @@
         <v>149</v>
       </c>
       <c r="O32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P32" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q32" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="R32" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="S32" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="T32" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="U32" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="V32" t="s">
         <v>24</v>
       </c>
       <c r="W32" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="X32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="33" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M33" t="s">
         <v>66</v>
       </c>
@@ -5152,34 +7093,52 @@
         <v>76</v>
       </c>
       <c r="P33" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q33" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="R33" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="S33" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="T33" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="U33" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="V33" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="W33" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="X33" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="34" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y33" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="34" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M34" t="s">
         <v>67</v>
       </c>
@@ -5187,37 +7146,55 @@
         <v>151</v>
       </c>
       <c r="O34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P34" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q34" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="R34" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="S34" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="T34" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="U34" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="V34" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="W34" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="X34" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="35" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1071</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="35" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M35" t="s">
         <v>68</v>
       </c>
@@ -5225,37 +7202,55 @@
         <v>152</v>
       </c>
       <c r="O35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P35" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q35" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="R35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S35" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="T35" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="U35" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="V35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="W35" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="X35" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="13:24" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="36" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M36" t="s">
         <v>69</v>
       </c>
@@ -5263,37 +7258,55 @@
         <v>153</v>
       </c>
       <c r="O36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P36" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="R36" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="S36" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="T36" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="U36" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V36" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="W36" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="X36" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="37" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y36" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="37" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M37" t="s">
         <v>70</v>
       </c>
@@ -5301,37 +7314,55 @@
         <v>154</v>
       </c>
       <c r="O37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P37" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T37" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="U37" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="V37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="W37" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="X37" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="38" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1072</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="38" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M38" t="s">
         <v>71</v>
       </c>
@@ -5339,37 +7370,55 @@
         <v>155</v>
       </c>
       <c r="O38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P38" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R38" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="S38" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="T38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U38" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="V38" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="W38" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="X38" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="39" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y38" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M39" t="s">
         <v>72</v>
       </c>
@@ -5377,37 +7426,55 @@
         <v>156</v>
       </c>
       <c r="O39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P39" t="s">
         <v>77</v>
       </c>
       <c r="Q39" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="R39" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="S39" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="T39" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="U39" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="V39" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="W39" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="X39" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="40" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1073</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="40" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M40" t="s">
         <v>73</v>
       </c>
@@ -5415,37 +7482,55 @@
         <v>157</v>
       </c>
       <c r="O40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P40" t="s">
         <v>177</v>
       </c>
       <c r="Q40" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="R40" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="S40" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="T40" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="U40" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="V40" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="W40" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="X40" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="41" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1074</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="41" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M41" t="s">
         <v>74</v>
       </c>
@@ -5453,37 +7538,55 @@
         <v>158</v>
       </c>
       <c r="O41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P41" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q41" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="R41" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="S41" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="T41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="U41" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="V41" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="W41" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="X41" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="42" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y41" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>926</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="42" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M42" t="s">
         <v>75</v>
       </c>
@@ -5491,37 +7594,55 @@
         <v>159</v>
       </c>
       <c r="O42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P42" t="s">
         <v>214</v>
       </c>
       <c r="Q42" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="R42" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S42" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="T42" t="s">
         <v>70</v>
       </c>
       <c r="U42" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W42" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="X42" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="43" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1075</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M43" t="s">
         <v>51</v>
       </c>
@@ -5529,37 +7650,55 @@
         <v>160</v>
       </c>
       <c r="O43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P43" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="R43" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="S43" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="T43" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="U43" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="V43" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="W43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X43" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="44" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1076</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M44" t="s">
         <v>76</v>
       </c>
@@ -5567,37 +7706,55 @@
         <v>161</v>
       </c>
       <c r="O44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P44" t="s">
         <v>98</v>
       </c>
       <c r="Q44" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="R44" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="S44" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="T44" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="U44" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="V44" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="W44" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="X44" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="45" spans="13:24" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M45" t="s">
         <v>77</v>
       </c>
@@ -5608,34 +7765,52 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="R45" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="S45" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="T45" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="U45" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="V45" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="W45" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="X45" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="46" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1077</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="46" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M46" t="s">
         <v>78</v>
       </c>
@@ -5643,37 +7818,55 @@
         <v>163</v>
       </c>
       <c r="O46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P46" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="R46" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="S46" t="s">
         <v>206</v>
       </c>
       <c r="T46" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="U46" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="V46" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="W46" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="X46" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="47" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1078</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="47" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M47" t="s">
         <v>79</v>
       </c>
@@ -5681,37 +7874,55 @@
         <v>164</v>
       </c>
       <c r="O47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P47" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q47" t="s">
         <v>33</v>
       </c>
       <c r="R47" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="S47" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="T47" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="U47" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="V47" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="W47" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="X47" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="48" spans="13:24" x14ac:dyDescent="0.35">
+        <v>968</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>981</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="48" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M48" t="s">
         <v>80</v>
       </c>
@@ -5719,37 +7930,55 @@
         <v>165</v>
       </c>
       <c r="O48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q48" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="R48" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="S48" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="T48" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="U48" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="V48" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="W48" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="X48" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="49" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y48" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>991</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="49" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M49" t="s">
         <v>81</v>
       </c>
@@ -5757,37 +7986,55 @@
         <v>166</v>
       </c>
       <c r="O49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P49" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q49" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="R49" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="S49" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="T49" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="U49" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="V49" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="W49" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="X49" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="50" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1079</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="50" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M50" t="s">
         <v>82</v>
       </c>
@@ -5795,37 +8042,55 @@
         <v>59</v>
       </c>
       <c r="O50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P50" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q50" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="R50" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S50" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="T50" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="U50" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="V50" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="W50" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="X50" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="51" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1080</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="51" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M51" t="s">
         <v>83</v>
       </c>
@@ -5833,37 +8098,55 @@
         <v>167</v>
       </c>
       <c r="O51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P51" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="R51" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="S51" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="T51" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="U51" t="s">
         <v>55</v>
       </c>
       <c r="V51" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="W51" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="X51" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="52" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1081</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M52" t="s">
         <v>84</v>
       </c>
@@ -5871,37 +8154,55 @@
         <v>168</v>
       </c>
       <c r="O52" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P52" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q52" t="s">
         <v>73</v>
       </c>
       <c r="R52" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="S52" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="T52" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="U52" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="V52" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="W52" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="X52" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="53" spans="13:24" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M53" t="s">
         <v>85</v>
       </c>
@@ -5909,37 +8210,55 @@
         <v>169</v>
       </c>
       <c r="O53" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P53" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q53" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="R53" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="S53" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="T53" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="U53" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="V53" t="s">
         <v>191</v>
       </c>
       <c r="W53" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="X53" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="54" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1036</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M54" t="s">
         <v>86</v>
       </c>
@@ -5947,37 +8266,55 @@
         <v>170</v>
       </c>
       <c r="O54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P54" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q54" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="R54" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="S54" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="T54" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="U54" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="V54" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="W54" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="X54" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="55" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y54" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M55" t="s">
         <v>87</v>
       </c>
@@ -5985,37 +8322,55 @@
         <v>171</v>
       </c>
       <c r="O55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P55" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q55" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R55" t="s">
         <v>116</v>
       </c>
       <c r="S55" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="T55" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="U55" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="V55" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="W55" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="X55" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="56" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1052</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="56" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M56" t="s">
         <v>88</v>
       </c>
@@ -6023,37 +8378,55 @@
         <v>172</v>
       </c>
       <c r="O56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q56" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="R56" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="S56" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T56" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="U56" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="V56" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="W56" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="X56" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="57" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1082</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>1136</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="57" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M57" t="s">
         <v>89</v>
       </c>
@@ -6061,37 +8434,55 @@
         <v>173</v>
       </c>
       <c r="O57" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q57" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="R57" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="S57" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="T57" t="s">
         <v>220</v>
       </c>
       <c r="U57" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V57" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="W57" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="X57" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="58" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1083</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="58" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M58" t="s">
         <v>90</v>
       </c>
@@ -6099,37 +8490,55 @@
         <v>78</v>
       </c>
       <c r="O58" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P58" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q58" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="R58" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="S58" t="s">
         <v>131</v>
       </c>
       <c r="T58" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="U58" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="V58" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="W58" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="X58" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="59" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1084</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="59" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M59" t="s">
         <v>91</v>
       </c>
@@ -6137,37 +8546,55 @@
         <v>174</v>
       </c>
       <c r="O59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P59" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q59" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="R59" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="S59" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="T59" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="U59" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="V59" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="W59" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="X59" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="60" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1085</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="60" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M60" t="s">
         <v>92</v>
       </c>
@@ -6175,37 +8602,55 @@
         <v>175</v>
       </c>
       <c r="O60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P60" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q60" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="R60" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="S60" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="T60" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="U60" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="V60" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="W60" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="X60" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="61" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y60" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="61" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M61" t="s">
         <v>93</v>
       </c>
@@ -6213,37 +8658,55 @@
         <v>176</v>
       </c>
       <c r="O61" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P61" t="s">
         <v>77</v>
       </c>
       <c r="Q61" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="R61" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S61" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="T61" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="U61" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="V61" t="s">
         <v>154</v>
       </c>
       <c r="W61" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="X61" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="62" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1086</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="62" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M62" t="s">
         <v>94</v>
       </c>
@@ -6251,37 +8714,55 @@
         <v>177</v>
       </c>
       <c r="O62" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P62" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q62" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="R62" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="S62" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="T62" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="U62" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="V62" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="W62" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="X62" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="63" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y62" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="63" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M63" t="s">
         <v>95</v>
       </c>
@@ -6292,34 +8773,52 @@
         <v>115</v>
       </c>
       <c r="P63" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q63" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="R63" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="S63" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="T63" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="U63" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="V63" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="W63" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="X63" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="64" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1087</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>981</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="64" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M64" t="s">
         <v>96</v>
       </c>
@@ -6327,37 +8826,55 @@
         <v>179</v>
       </c>
       <c r="O64" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q64" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="R64" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="S64" t="s">
         <v>73</v>
       </c>
       <c r="T64" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="U64" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="V64" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="W64" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="X64" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="65" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1088</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>1144</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="65" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M65" t="s">
         <v>97</v>
       </c>
@@ -6365,37 +8882,55 @@
         <v>180</v>
       </c>
       <c r="O65" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P65" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q65" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="R65" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="S65" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="T65" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="U65" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="V65" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="W65" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="X65" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="66" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1089</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>1145</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="66" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M66" t="s">
         <v>98</v>
       </c>
@@ -6403,34 +8938,52 @@
         <v>181</v>
       </c>
       <c r="O66" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P66" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R66" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="S66" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="T66" t="s">
         <v>214</v>
       </c>
       <c r="U66" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="V66" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="X66" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="67" spans="13:24" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M67" t="s">
         <v>99</v>
       </c>
@@ -6438,34 +8991,52 @@
         <v>182</v>
       </c>
       <c r="O67" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P67" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q67" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="R67" t="s">
         <v>215</v>
       </c>
       <c r="S67" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="T67" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="U67" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="V67" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="X67" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="68" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1090</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="68" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M68" t="s">
         <v>100</v>
       </c>
@@ -6473,34 +9044,52 @@
         <v>183</v>
       </c>
       <c r="O68" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P68" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q68" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="R68" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="S68" t="s">
         <v>87</v>
       </c>
       <c r="T68" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="U68" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="V68" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="X68" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="69" spans="13:24" x14ac:dyDescent="0.35">
+        <v>1059</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="69" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M69" t="s">
         <v>101</v>
       </c>
@@ -6508,34 +9097,52 @@
         <v>184</v>
       </c>
       <c r="O69" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q69" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="R69" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="S69" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="T69" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="U69" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="V69" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="X69" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="70" spans="13:24" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="70" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M70" t="s">
         <v>102</v>
       </c>
@@ -6546,13 +9153,13 @@
         <v>73</v>
       </c>
       <c r="P70" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q70" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="R70" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="S70" t="s">
         <v>106</v>
@@ -6561,13 +9168,31 @@
         <v>65</v>
       </c>
       <c r="U70" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="V70" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="71" spans="13:24" x14ac:dyDescent="0.35">
+        <v>946</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="71" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M71" t="s">
         <v>103</v>
       </c>
@@ -6575,31 +9200,49 @@
         <v>186</v>
       </c>
       <c r="O71" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P71" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q71" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="R71" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S71" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="T71" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="U71" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="V71" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="72" spans="13:24" x14ac:dyDescent="0.35">
+        <v>947</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M72" t="s">
         <v>104</v>
       </c>
@@ -6607,31 +9250,49 @@
         <v>187</v>
       </c>
       <c r="O72" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P72" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q72" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="R72" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="S72" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="T72" t="s">
         <v>103</v>
       </c>
       <c r="U72" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="V72" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y72" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M73" t="s">
         <v>105</v>
       </c>
@@ -6645,25 +9306,43 @@
         <v>131</v>
       </c>
       <c r="Q73" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="R73" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="S73" t="s">
         <v>115</v>
       </c>
       <c r="T73" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="U73" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="V73" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" spans="13:24" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="74" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M74" t="s">
         <v>106</v>
       </c>
@@ -6671,31 +9350,49 @@
         <v>177</v>
       </c>
       <c r="O74" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P74" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q74" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="R74" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="S74" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T74" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="U74" t="s">
         <v>186</v>
       </c>
       <c r="V74" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="75" spans="13:24" x14ac:dyDescent="0.35">
+        <v>944</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="75" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M75" t="s">
         <v>107</v>
       </c>
@@ -6706,28 +9403,46 @@
         <v>200</v>
       </c>
       <c r="P75" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q75" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="R75" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="S75" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="T75" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="U75" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="V75" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="76" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="Y75" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="76" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M76" t="s">
         <v>108</v>
       </c>
@@ -6738,28 +9453,46 @@
         <v>123</v>
       </c>
       <c r="P76" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q76" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="R76" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="S76" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="T76" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="U76" t="s">
         <v>163</v>
       </c>
       <c r="V76" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="77" spans="13:24" x14ac:dyDescent="0.35">
+        <v>948</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>1153</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="77" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M77" t="s">
         <v>109</v>
       </c>
@@ -6767,31 +9500,49 @@
         <v>191</v>
       </c>
       <c r="O77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P77" t="s">
         <v>192</v>
       </c>
       <c r="Q77" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="R77" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="S77" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="T77" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="U77" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="V77" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="78" spans="13:24" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="78" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M78" t="s">
         <v>110</v>
       </c>
@@ -6799,31 +9550,49 @@
         <v>192</v>
       </c>
       <c r="O78" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P78" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q78" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R78" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="S78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T78" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="U78" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="V78" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="79" spans="13:24" x14ac:dyDescent="0.35">
+        <v>949</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>922</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="79" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M79" t="s">
         <v>111</v>
       </c>
@@ -6831,31 +9600,49 @@
         <v>193</v>
       </c>
       <c r="O79" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P79" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q79" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="R79" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="S79" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="T79" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="U79" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="V79" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="80" spans="13:24" x14ac:dyDescent="0.35">
+        <v>950</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="80" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M80" t="s">
         <v>112</v>
       </c>
@@ -6866,28 +9653,46 @@
         <v>102</v>
       </c>
       <c r="P80" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q80" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="R80" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="S80" t="s">
         <v>123</v>
       </c>
       <c r="T80" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="U80" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="V80" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="Y80" t="s">
+        <v>1157</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="81" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M81" t="s">
         <v>113</v>
       </c>
@@ -6895,31 +9700,49 @@
         <v>195</v>
       </c>
       <c r="O81" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P81" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q81" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="R81" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="S81" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="T81" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="U81" t="s">
         <v>178</v>
       </c>
       <c r="V81" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="82" spans="13:22" x14ac:dyDescent="0.35">
+        <v>951</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="82" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M82" t="s">
         <v>114</v>
       </c>
@@ -6927,31 +9750,46 @@
         <v>196</v>
       </c>
       <c r="O82" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P82" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q82" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="R82" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="S82" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="T82" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="U82" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="V82" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="83" spans="13:22" x14ac:dyDescent="0.35">
+        <v>952</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="83" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M83" t="s">
         <v>115</v>
       </c>
@@ -6962,28 +9800,43 @@
         <v>115</v>
       </c>
       <c r="P83" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q83" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="R83" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="S83" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="T83" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="U83" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="V83" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="84" spans="13:22" x14ac:dyDescent="0.35">
+        <v>953</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>686</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="84" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M84" t="s">
         <v>116</v>
       </c>
@@ -6991,31 +9844,46 @@
         <v>197</v>
       </c>
       <c r="O84" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P84" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q84" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="R84" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="S84" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="T84" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="U84" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="V84" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="85" spans="13:22" x14ac:dyDescent="0.35">
+        <v>954</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="85" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M85" t="s">
         <v>117</v>
       </c>
@@ -7023,31 +9891,43 @@
         <v>198</v>
       </c>
       <c r="O85" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P85" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q85" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="R85" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="S85" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="T85" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="U85" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="V85" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="86" spans="13:22" x14ac:dyDescent="0.35">
+        <v>955</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>846</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="86" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M86" t="s">
         <v>118</v>
       </c>
@@ -7058,28 +9938,40 @@
         <v>54</v>
       </c>
       <c r="P86" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q86" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="R86" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="S86" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="T86" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="U86" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="V86" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="87" spans="13:22" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="87" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M87" t="s">
         <v>119</v>
       </c>
@@ -7087,31 +9979,43 @@
         <v>200</v>
       </c>
       <c r="O87" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P87" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q87" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="R87" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="S87" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="T87" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="U87" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="V87" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="88" spans="13:22" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="88" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M88" t="s">
         <v>120</v>
       </c>
@@ -7119,31 +10023,43 @@
         <v>201</v>
       </c>
       <c r="O88" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P88" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q88" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="R88" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="S88" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="T88" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="U88" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="V88" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="89" spans="13:22" x14ac:dyDescent="0.35">
+        <v>957</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="89" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M89" t="s">
         <v>121</v>
       </c>
@@ -7151,31 +10067,40 @@
         <v>202</v>
       </c>
       <c r="O89" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P89" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q89" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="R89" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="S89" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="T89" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="U89" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="V89" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="90" spans="13:22" x14ac:dyDescent="0.35">
+        <v>958</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="90" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M90" t="s">
         <v>122</v>
       </c>
@@ -7183,31 +10108,40 @@
         <v>110</v>
       </c>
       <c r="O90" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P90" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q90" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R90" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="S90" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="T90" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="U90" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="V90" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="91" spans="13:22" x14ac:dyDescent="0.35">
+        <v>959</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="91" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M91" t="s">
         <v>123</v>
       </c>
@@ -7215,31 +10149,40 @@
         <v>131</v>
       </c>
       <c r="O91" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q91" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="R91" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="S91" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="T91" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="U91" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="V91" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="92" spans="13:22" x14ac:dyDescent="0.35">
+        <v>960</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>988</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="92" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M92" t="s">
         <v>124</v>
       </c>
@@ -7247,31 +10190,37 @@
         <v>203</v>
       </c>
       <c r="O92" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P92" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q92" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R92" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="S92" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="T92" t="s">
         <v>144</v>
       </c>
       <c r="U92" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="V92" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="93" spans="13:22" x14ac:dyDescent="0.35">
+        <v>961</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD92" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="93" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M93" t="s">
         <v>125</v>
       </c>
@@ -7279,28 +10228,34 @@
         <v>204</v>
       </c>
       <c r="O93" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q93" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="R93" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="S93" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="T93" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="U93" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="V93" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="94" spans="13:22" x14ac:dyDescent="0.35">
+        <v>962</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AD93" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="94" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M94" t="s">
         <v>126</v>
       </c>
@@ -7308,28 +10263,34 @@
         <v>205</v>
       </c>
       <c r="O94" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q94" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="R94" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="S94" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="T94" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="U94" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="V94" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="95" spans="13:22" x14ac:dyDescent="0.35">
+        <v>963</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AD94" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="95" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M95" t="s">
         <v>127</v>
       </c>
@@ -7337,25 +10298,31 @@
         <v>206</v>
       </c>
       <c r="Q95" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="R95" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="S95" t="s">
         <v>73</v>
       </c>
       <c r="T95" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="U95" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="V95" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="96" spans="13:22" x14ac:dyDescent="0.35">
+        <v>964</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="96" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M96" t="s">
         <v>128</v>
       </c>
@@ -7363,25 +10330,31 @@
         <v>207</v>
       </c>
       <c r="Q96" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R96" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="S96" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="T96" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="U96" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="V96" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="97" spans="13:22" x14ac:dyDescent="0.35">
+        <v>965</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="97" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M97" t="s">
         <v>129</v>
       </c>
@@ -7389,25 +10362,31 @@
         <v>208</v>
       </c>
       <c r="Q97" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="R97" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="S97" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="T97" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="U97" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="V97" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="98" spans="13:22" x14ac:dyDescent="0.35">
+        <v>966</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M98" t="s">
         <v>130</v>
       </c>
@@ -7415,25 +10394,31 @@
         <v>209</v>
       </c>
       <c r="Q98" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="R98" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="S98" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="T98" t="s">
         <v>54</v>
       </c>
       <c r="U98" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="V98" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="99" spans="13:22" x14ac:dyDescent="0.35">
+        <v>967</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="99" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M99" t="s">
         <v>131</v>
       </c>
@@ -7441,22 +10426,28 @@
         <v>210</v>
       </c>
       <c r="Q99" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="R99" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="T99" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="U99" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="V99" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="100" spans="13:22" x14ac:dyDescent="0.35">
+        <v>968</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="100" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M100" t="s">
         <v>132</v>
       </c>
@@ -7467,189 +10458,225 @@
         <v>110</v>
       </c>
       <c r="R100" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="T100" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="U100" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="V100" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="101" spans="13:22" x14ac:dyDescent="0.35">
+        <v>969</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="101" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N101" t="s">
         <v>212</v>
       </c>
       <c r="Q101" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="R101" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="U101" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="V101" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="102" spans="13:22" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="102" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N102" t="s">
         <v>213</v>
       </c>
       <c r="Q102" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="R102" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U102" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="V102" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="103" spans="13:22" x14ac:dyDescent="0.35">
+        <v>970</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="103" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N103" t="s">
         <v>214</v>
       </c>
       <c r="Q103" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="R103" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="U103" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="V103" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="104" spans="13:22" x14ac:dyDescent="0.35">
+        <v>971</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="104" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N104" t="s">
         <v>215</v>
       </c>
       <c r="Q104" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="R104" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="U104" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="V104" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="105" spans="13:22" x14ac:dyDescent="0.35">
+        <v>972</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="105" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N105" t="s">
         <v>216</v>
       </c>
       <c r="Q105" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="R105" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="U105" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="V105" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="106" spans="13:22" x14ac:dyDescent="0.35">
+        <v>973</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="106" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N106" t="s">
         <v>111</v>
       </c>
       <c r="Q106" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="R106" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="U106" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="V106" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="107" spans="13:22" x14ac:dyDescent="0.35">
+        <v>974</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="107" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N107" t="s">
         <v>218</v>
       </c>
       <c r="Q107" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="R107" t="s">
         <v>215</v>
       </c>
       <c r="U107" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="V107" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="108" spans="13:22" x14ac:dyDescent="0.35">
+        <v>975</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="108" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N108" t="s">
         <v>217</v>
       </c>
       <c r="Q108" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="R108" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="U108" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="V108" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="109" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="AD108" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="109" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N109" t="s">
         <v>219</v>
       </c>
       <c r="Q109" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="R109" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="U109" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="V109" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="110" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="AD109" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="110" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N110" t="s">
         <v>220</v>
       </c>
       <c r="Q110" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="R110" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="U110" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="V110" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="111" spans="13:22" x14ac:dyDescent="0.35">
+        <v>976</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="111" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N111" t="s">
         <v>221</v>
       </c>
@@ -7657,269 +10684,281 @@
         <v>15</v>
       </c>
       <c r="R111" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="U111" t="s">
         <v>63</v>
       </c>
       <c r="V111" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="112" spans="13:22" x14ac:dyDescent="0.35">
+        <v>977</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="112" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N112" t="s">
         <v>222</v>
       </c>
       <c r="Q112" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="R112" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="U112" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="V112" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="113" spans="14:22" x14ac:dyDescent="0.35">
+        <v>978</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="113" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N113" t="s">
         <v>223</v>
       </c>
       <c r="Q113" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="R113" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="U113" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="V113" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="114" spans="14:22" x14ac:dyDescent="0.35">
+        <v>979</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="114" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N114" t="s">
         <v>224</v>
       </c>
       <c r="Q114" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="R114" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="U114" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="V114" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="115" spans="14:22" x14ac:dyDescent="0.35">
+        <v>980</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="115" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N115" t="s">
         <v>225</v>
       </c>
       <c r="Q115" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="R115" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="U115" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="V115" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="116" spans="14:22" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N116" t="s">
         <v>226</v>
       </c>
       <c r="Q116" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="R116" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="U116" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="V116" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="14:22" x14ac:dyDescent="0.35">
+    <row r="117" spans="14:30" x14ac:dyDescent="0.35">
       <c r="Q117" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="R117" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="U117" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="V117" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="118" spans="14:22" x14ac:dyDescent="0.35">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="118" spans="14:30" x14ac:dyDescent="0.35">
       <c r="Q118" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="R118" t="s">
         <v>200</v>
       </c>
       <c r="U118" t="s">
+        <v>880</v>
+      </c>
+      <c r="V118" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="119" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="R119" t="s">
+        <v>629</v>
+      </c>
+      <c r="U119" t="s">
+        <v>881</v>
+      </c>
+      <c r="V119" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="120" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="R120" t="s">
+        <v>630</v>
+      </c>
+      <c r="U120" t="s">
+        <v>882</v>
+      </c>
+      <c r="V120" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="121" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="R121" t="s">
+        <v>631</v>
+      </c>
+      <c r="U121" t="s">
         <v>883</v>
       </c>
-      <c r="V118" t="s">
+      <c r="V121" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="119" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="R119" t="s">
-        <v>632</v>
-      </c>
-      <c r="U119" t="s">
+    <row r="122" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="U122" t="s">
         <v>884</v>
       </c>
-      <c r="V119" t="s">
+      <c r="V122" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="120" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="R120" t="s">
-        <v>633</v>
-      </c>
-      <c r="U120" t="s">
+    <row r="123" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="U123" t="s">
         <v>885</v>
       </c>
-      <c r="V120" t="s">
+      <c r="V123" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="121" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="R121" t="s">
-        <v>634</v>
-      </c>
-      <c r="U121" t="s">
+    <row r="124" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="U124" t="s">
         <v>886</v>
       </c>
-      <c r="V121" t="s">
+      <c r="V124" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="125" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="U125" t="s">
+        <v>887</v>
+      </c>
+      <c r="V125" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="122" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="U122" t="s">
-        <v>887</v>
-      </c>
-      <c r="V122" t="s">
+    <row r="126" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="U126" t="s">
+        <v>888</v>
+      </c>
+      <c r="V126" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="123" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="U123" t="s">
-        <v>888</v>
-      </c>
-      <c r="V123" t="s">
+    <row r="127" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="U127" t="s">
+        <v>708</v>
+      </c>
+      <c r="V127" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="124" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="U124" t="s">
+    <row r="128" spans="14:30" x14ac:dyDescent="0.35">
+      <c r="U128" t="s">
         <v>889</v>
       </c>
-      <c r="V124" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="125" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="U125" t="s">
-        <v>890</v>
-      </c>
-      <c r="V125" t="s">
+      <c r="V128" t="s">
         <v>991</v>
-      </c>
-    </row>
-    <row r="126" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="U126" t="s">
-        <v>891</v>
-      </c>
-      <c r="V126" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="127" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="U127" t="s">
-        <v>711</v>
-      </c>
-      <c r="V127" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="128" spans="14:22" x14ac:dyDescent="0.35">
-      <c r="U128" t="s">
-        <v>892</v>
-      </c>
-      <c r="V128" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="129" spans="21:22" x14ac:dyDescent="0.35">
       <c r="U129" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="V129" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="130" spans="21:22" x14ac:dyDescent="0.35">
       <c r="U130" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="V130" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="131" spans="21:22" x14ac:dyDescent="0.35">
       <c r="U131" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="V131" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="132" spans="21:22" x14ac:dyDescent="0.35">
       <c r="U132" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="133" spans="21:22" x14ac:dyDescent="0.35">
       <c r="U133" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="134" spans="21:22" x14ac:dyDescent="0.35">
       <c r="U134" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="135" spans="21:22" x14ac:dyDescent="0.35">
       <c r="U135" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="136" spans="21:22" x14ac:dyDescent="0.35">
       <c r="U136" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="137" spans="21:22" x14ac:dyDescent="0.35">
       <c r="U137" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
